--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="440">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">number of facings</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000054227</t>
+    <t xml:space="preserve">5449000054227, 5449000228970</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">Фанта Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000006271</t>
+    <t xml:space="preserve">5449000006271, 5449000006271</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 1L</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">Спрайт - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000050939</t>
+    <t xml:space="preserve">5449000050939, 5449000228956</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange - 0.5L</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000133328</t>
+    <t xml:space="preserve">5449000133328, 5449000231659</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
@@ -659,7 +659,7 @@
 44</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">5449000233615</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -1182,10 +1182,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKUs/Number of cooler Doors</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -1297,7 +1294,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -1569,8 +1566,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1588,7 +1585,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1806,7 +1803,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1817,7 +1814,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1855,52 +1852,52 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.2672064777328"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2014,7 @@
       </c>
       <c r="BD1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>174</v>
       </c>
@@ -2078,7 +2075,7 @@
       <c r="AL2" s="7"/>
       <c r="BD2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>175</v>
       </c>
@@ -2139,7 +2136,7 @@
       <c r="AL3" s="11"/>
       <c r="BD3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>176</v>
       </c>
@@ -2202,7 +2199,7 @@
       </c>
       <c r="BD4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>177</v>
       </c>
@@ -2265,7 +2262,7 @@
       </c>
       <c r="BD5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>178</v>
       </c>
@@ -2326,7 +2323,7 @@
       <c r="AL6" s="11"/>
       <c r="BD6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>179</v>
       </c>
@@ -2389,7 +2386,7 @@
       </c>
       <c r="BD7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>180</v>
       </c>
@@ -2452,7 +2449,7 @@
       </c>
       <c r="BD8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>182</v>
       </c>
@@ -2515,7 +2512,7 @@
       </c>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>183</v>
       </c>
@@ -2578,7 +2575,7 @@
       </c>
       <c r="BD10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>184</v>
       </c>
@@ -2641,7 +2638,7 @@
       </c>
       <c r="BD11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>185</v>
       </c>
@@ -2704,7 +2701,7 @@
       </c>
       <c r="BD12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>186</v>
       </c>
@@ -2767,7 +2764,7 @@
       </c>
       <c r="BD13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>188</v>
       </c>
@@ -2828,7 +2825,7 @@
       <c r="AL14" s="7"/>
       <c r="BD14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>1</v>
       </c>
@@ -2895,7 +2892,7 @@
       </c>
       <c r="BD15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>2</v>
       </c>
@@ -2976,7 +2973,7 @@
       </c>
       <c r="BD16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>3</v>
       </c>
@@ -3057,7 +3054,7 @@
       </c>
       <c r="BD17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>4</v>
       </c>
@@ -3138,7 +3135,7 @@
       </c>
       <c r="BD18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>5</v>
       </c>
@@ -3219,7 +3216,7 @@
       </c>
       <c r="BD19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>6</v>
       </c>
@@ -3300,7 +3297,7 @@
       </c>
       <c r="BD20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>7</v>
       </c>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="BD21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>8</v>
       </c>
@@ -3462,7 +3459,7 @@
       </c>
       <c r="BD22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>9</v>
       </c>
@@ -3543,7 +3540,7 @@
       </c>
       <c r="BD23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>10</v>
       </c>
@@ -3624,7 +3621,7 @@
       </c>
       <c r="BD24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>11</v>
       </c>
@@ -3705,7 +3702,7 @@
       </c>
       <c r="BD25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>12</v>
       </c>
@@ -3786,7 +3783,7 @@
       </c>
       <c r="BD26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>13</v>
       </c>
@@ -3867,7 +3864,7 @@
       </c>
       <c r="BD27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>14</v>
       </c>
@@ -3948,7 +3945,7 @@
       </c>
       <c r="BD28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>15</v>
       </c>
@@ -4029,7 +4026,7 @@
       </c>
       <c r="BD29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>16</v>
       </c>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="BD30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>17</v>
       </c>
@@ -4191,7 +4188,7 @@
       </c>
       <c r="BD31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>18</v>
       </c>
@@ -4272,7 +4269,7 @@
       </c>
       <c r="BD32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>19</v>
       </c>
@@ -4353,7 +4350,7 @@
       </c>
       <c r="BD33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>20</v>
       </c>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="BD34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>21</v>
       </c>
@@ -4515,7 +4512,7 @@
       </c>
       <c r="BD35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>22</v>
       </c>
@@ -4596,7 +4593,7 @@
       </c>
       <c r="BD36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>23</v>
       </c>
@@ -4677,7 +4674,7 @@
       </c>
       <c r="BD37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>24</v>
       </c>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="BD38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>25</v>
       </c>
@@ -4825,7 +4822,7 @@
       </c>
       <c r="BD39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>26</v>
       </c>
@@ -4906,7 +4903,7 @@
       </c>
       <c r="BD40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>27</v>
       </c>
@@ -4987,7 +4984,7 @@
       </c>
       <c r="BD41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>28</v>
       </c>
@@ -5068,7 +5065,7 @@
       </c>
       <c r="BD42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>29</v>
       </c>
@@ -5149,7 +5146,7 @@
       </c>
       <c r="BD43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>30</v>
       </c>
@@ -5230,7 +5227,7 @@
       </c>
       <c r="BD44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>31</v>
       </c>
@@ -5311,7 +5308,7 @@
       </c>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>32</v>
       </c>
@@ -5378,7 +5375,7 @@
       </c>
       <c r="BD46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>33</v>
       </c>
@@ -5459,7 +5456,7 @@
       </c>
       <c r="BD47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>34</v>
       </c>
@@ -5540,7 +5537,7 @@
       </c>
       <c r="BD48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>35</v>
       </c>
@@ -5621,7 +5618,7 @@
       </c>
       <c r="BD49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>36</v>
       </c>
@@ -5702,7 +5699,7 @@
       </c>
       <c r="BD50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>37</v>
       </c>
@@ -5783,7 +5780,7 @@
       </c>
       <c r="BD51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>38</v>
       </c>
@@ -5850,7 +5847,7 @@
       </c>
       <c r="BD52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>39</v>
       </c>
@@ -5931,7 +5928,7 @@
       </c>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>40</v>
       </c>
@@ -6012,7 +6009,7 @@
       </c>
       <c r="BD54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>41</v>
       </c>
@@ -6093,7 +6090,7 @@
       </c>
       <c r="BD55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>42</v>
       </c>
@@ -6174,7 +6171,7 @@
       </c>
       <c r="BD56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>43</v>
       </c>
@@ -6255,7 +6252,7 @@
       </c>
       <c r="BD57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>44</v>
       </c>
@@ -6336,7 +6333,7 @@
       </c>
       <c r="BD58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>45</v>
       </c>
@@ -6403,7 +6400,7 @@
       </c>
       <c r="BD59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>46</v>
       </c>
@@ -6484,7 +6481,7 @@
       </c>
       <c r="BD60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>47</v>
       </c>
@@ -6565,7 +6562,7 @@
       </c>
       <c r="BD61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>48</v>
       </c>
@@ -6646,7 +6643,7 @@
       </c>
       <c r="BD62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>49</v>
       </c>
@@ -6727,7 +6724,7 @@
       </c>
       <c r="BD63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>50</v>
       </c>
@@ -6808,7 +6805,7 @@
       </c>
       <c r="BD64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>51</v>
       </c>
@@ -6889,7 +6886,7 @@
       </c>
       <c r="BD65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>52</v>
       </c>
@@ -6970,7 +6967,7 @@
       </c>
       <c r="BD66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>53</v>
       </c>
@@ -7051,7 +7048,7 @@
       </c>
       <c r="BD67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>54</v>
       </c>
@@ -7132,7 +7129,7 @@
       </c>
       <c r="BD68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>55</v>
       </c>
@@ -7213,7 +7210,7 @@
       </c>
       <c r="BD69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>56</v>
       </c>
@@ -7294,7 +7291,7 @@
       </c>
       <c r="BD70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>57</v>
       </c>
@@ -7375,7 +7372,7 @@
       </c>
       <c r="BD71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>58</v>
       </c>
@@ -7452,7 +7449,7 @@
       </c>
       <c r="BD72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>59</v>
       </c>
@@ -7527,7 +7524,7 @@
       </c>
       <c r="BD73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>60</v>
       </c>
@@ -7602,7 +7599,7 @@
       </c>
       <c r="BD74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>61</v>
       </c>
@@ -7677,7 +7674,7 @@
       </c>
       <c r="BD75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>62</v>
       </c>
@@ -7752,7 +7749,7 @@
       </c>
       <c r="BD76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>63</v>
       </c>
@@ -7827,7 +7824,7 @@
       </c>
       <c r="BD77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>64</v>
       </c>
@@ -7904,7 +7901,7 @@
       </c>
       <c r="BD78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>65</v>
       </c>
@@ -7977,7 +7974,7 @@
       </c>
       <c r="BD79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>66</v>
       </c>
@@ -8056,7 +8053,7 @@
       </c>
       <c r="BD80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>69</v>
       </c>
@@ -8131,7 +8128,7 @@
       </c>
       <c r="BD81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>70</v>
       </c>
@@ -8208,7 +8205,7 @@
       </c>
       <c r="BD82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>71</v>
       </c>
@@ -8281,7 +8278,7 @@
       </c>
       <c r="BD83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>72</v>
       </c>
@@ -8358,7 +8355,7 @@
       </c>
       <c r="BD84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>73</v>
       </c>
@@ -8435,7 +8432,7 @@
       </c>
       <c r="BD85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>74</v>
       </c>
@@ -8510,7 +8507,7 @@
       </c>
       <c r="BD86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>75</v>
       </c>
@@ -8585,7 +8582,7 @@
       </c>
       <c r="BD87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>76</v>
       </c>
@@ -8656,7 +8653,7 @@
       </c>
       <c r="BD88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>77</v>
       </c>
@@ -8729,7 +8726,7 @@
       </c>
       <c r="BD89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>78</v>
       </c>
@@ -8800,7 +8797,7 @@
       </c>
       <c r="BD90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>79</v>
       </c>
@@ -8873,7 +8870,7 @@
       </c>
       <c r="BD91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>80</v>
       </c>
@@ -8956,7 +8953,7 @@
       </c>
       <c r="BD92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>81</v>
       </c>
@@ -9039,7 +9036,7 @@
       </c>
       <c r="BD93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>82</v>
       </c>
@@ -9114,7 +9111,7 @@
       </c>
       <c r="BD94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>83</v>
       </c>
@@ -9195,7 +9192,7 @@
       </c>
       <c r="BD95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>84</v>
       </c>
@@ -9220,9 +9217,7 @@
       <c r="H96" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="I96" s="25" t="s">
-        <v>361</v>
-      </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7" t="n">
         <v>1</v>
@@ -9268,7 +9263,7 @@
         <v>336</v>
       </c>
       <c r="AH96" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AI96" s="7" t="n">
         <v>2</v>
@@ -9282,7 +9277,7 @@
       </c>
       <c r="BD96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>85</v>
       </c>
@@ -9299,10 +9294,10 @@
         <v>302</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>74</v>
@@ -9332,7 +9327,7 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
       <c r="AC97" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD97" s="15" t="n">
         <v>0.03</v>
@@ -9347,7 +9342,7 @@
         <v>336</v>
       </c>
       <c r="AH97" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI97" s="7" t="n">
         <v>2</v>
@@ -9356,14 +9351,14 @@
         <v>85</v>
       </c>
       <c r="AK97" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL97" s="24" t="n">
         <v>312</v>
       </c>
       <c r="BD97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>86</v>
       </c>
@@ -9378,10 +9373,10 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>74</v>
@@ -9417,7 +9412,7 @@
       <c r="AE98" s="16"/>
       <c r="AF98" s="7"/>
       <c r="AG98" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH98" s="7"/>
       <c r="AI98" s="7" t="n">
@@ -9432,7 +9427,7 @@
       </c>
       <c r="BD98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>87</v>
       </c>
@@ -9447,13 +9442,13 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="n">
@@ -9462,14 +9457,14 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N99" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="N99" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="O99" s="11"/>
       <c r="P99" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q99" s="7" t="s">
         <v>80</v>
@@ -9485,20 +9480,20 @@
         <v>342</v>
       </c>
       <c r="X99" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD99" s="9"/>
       <c r="AE99" s="7"/>
       <c r="AF99" s="7"/>
       <c r="AG99" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH99" s="7"/>
       <c r="AI99" s="7" t="n">
@@ -9513,7 +9508,7 @@
       </c>
       <c r="BD99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>88</v>
       </c>
@@ -9528,10 +9523,10 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>273</v>
@@ -9563,13 +9558,13 @@
       <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD100" s="9"/>
       <c r="AE100" s="7"/>
       <c r="AF100" s="7"/>
       <c r="AG100" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AH100" s="7"/>
       <c r="AI100" s="7" t="n">
@@ -9579,14 +9574,14 @@
         <v>88</v>
       </c>
       <c r="AK100" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL100" s="7" t="n">
         <v>85</v>
       </c>
       <c r="BD100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>89</v>
       </c>
@@ -9601,10 +9596,10 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>78</v>
@@ -9616,14 +9611,14 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N101" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="N101" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="O101" s="11"/>
       <c r="P101" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q101" s="7" t="s">
         <v>80</v>
@@ -9639,13 +9634,13 @@
         <v>342</v>
       </c>
       <c r="X101" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC101" s="7" t="s">
         <v>84</v>
@@ -9654,7 +9649,7 @@
       <c r="AE101" s="7"/>
       <c r="AF101" s="7"/>
       <c r="AG101" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH101" s="7"/>
       <c r="AI101" s="7" t="n">
@@ -9669,7 +9664,7 @@
       </c>
       <c r="BD101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>90</v>
       </c>
@@ -9684,10 +9679,10 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>78</v>
@@ -9699,14 +9694,14 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N102" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="N102" s="11" t="s">
-        <v>389</v>
       </c>
       <c r="O102" s="11"/>
       <c r="P102" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q102" s="7" t="s">
         <v>80</v>
@@ -9722,13 +9717,13 @@
         <v>342</v>
       </c>
       <c r="X102" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
       <c r="AB102" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC102" s="7" t="s">
         <v>84</v>
@@ -9737,7 +9732,7 @@
       <c r="AE102" s="7"/>
       <c r="AF102" s="7"/>
       <c r="AG102" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH102" s="7"/>
       <c r="AI102" s="7" t="n">
@@ -9752,7 +9747,7 @@
       </c>
       <c r="BD102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>91</v>
       </c>
@@ -9767,17 +9762,15 @@
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="H103" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H103" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="I103" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="I103" s="7"/>
       <c r="J103" s="7" t="n">
         <v>2</v>
       </c>
@@ -9805,7 +9798,7 @@
         <v>342</v>
       </c>
       <c r="X103" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
@@ -9818,7 +9811,7 @@
       <c r="AE103" s="7"/>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AH103" s="7"/>
       <c r="AI103" s="7" t="n">
@@ -9833,7 +9826,7 @@
       </c>
       <c r="BD103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>92</v>
       </c>
@@ -9850,13 +9843,13 @@
         <v>302</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -9896,7 +9889,7 @@
         <v>336</v>
       </c>
       <c r="AH104" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AI104" s="7" t="n">
         <v>2</v>
@@ -9910,7 +9903,7 @@
       </c>
       <c r="BD104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>93</v>
       </c>
@@ -9921,22 +9914,22 @@
         <v>39</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E105" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="F105" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="G105" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="H105" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -9947,7 +9940,7 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
@@ -9970,12 +9963,12 @@
         <v>93</v>
       </c>
       <c r="AK105" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL105" s="7"/>
       <c r="BD105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>94</v>
       </c>
@@ -9986,35 +9979,35 @@
         <v>39</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E106" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F106" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="G106" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="H106" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="I106" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
@@ -10042,7 +10035,7 @@
       <c r="AL106" s="7"/>
       <c r="BD106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>95</v>
       </c>
@@ -10053,35 +10046,35 @@
         <v>39</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E107" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="G107" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="H107" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
@@ -10109,7 +10102,7 @@
       <c r="AL107" s="7"/>
       <c r="BD107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>96</v>
       </c>
@@ -10120,35 +10113,35 @@
         <v>39</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E108" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F108" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="G108" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="H108" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
@@ -10176,7 +10169,7 @@
       <c r="AL108" s="7"/>
       <c r="BD108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>97</v>
       </c>
@@ -10187,35 +10180,35 @@
         <v>39</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E109" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="G109" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="H109" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="I109" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
@@ -10243,7 +10236,7 @@
       <c r="AL109" s="7"/>
       <c r="BD109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>98</v>
       </c>
@@ -10254,35 +10247,35 @@
         <v>39</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E110" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F110" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="F110" s="23" t="s">
+      <c r="G110" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="H110" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="I110" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
@@ -10292,7 +10285,7 @@
         <v>342</v>
       </c>
       <c r="X110" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -10312,7 +10305,7 @@
       <c r="AL110" s="7"/>
       <c r="BD110" s="27"/>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>99</v>
       </c>
@@ -10323,35 +10316,35 @@
         <v>39</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E111" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="H111" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H111" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="I111" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -10359,7 +10352,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
       <c r="X111" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -10378,7 +10371,7 @@
       <c r="AK111" s="7"/>
       <c r="AL111" s="7"/>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>100</v>
       </c>
@@ -10389,35 +10382,35 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E112" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="F112" s="23" t="s">
+      <c r="G112" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="G112" s="23" t="s">
-        <v>429</v>
-      </c>
       <c r="H112" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
@@ -10425,7 +10418,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
       <c r="X112" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -10444,7 +10437,7 @@
       <c r="AK112" s="7"/>
       <c r="AL112" s="7"/>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>101</v>
       </c>
@@ -10455,35 +10448,35 @@
         <v>39</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E113" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F113" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="G113" s="23" t="s">
-        <v>433</v>
-      </c>
       <c r="H113" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
@@ -10491,7 +10484,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
       <c r="X113" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
@@ -10510,7 +10503,7 @@
       <c r="AK113" s="7"/>
       <c r="AL113" s="7"/>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>102</v>
       </c>
@@ -10521,37 +10514,37 @@
         <v>39</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E114" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F114" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="G114" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G114" s="23" t="s">
-        <v>437</v>
-      </c>
       <c r="H114" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="N114" s="13" t="s">
         <v>438</v>
-      </c>
-      <c r="N114" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
@@ -10578,7 +10571,7 @@
       </c>
       <c r="AL114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
         <v>103</v>
       </c>
@@ -10589,37 +10582,37 @@
         <v>39</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E115" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F115" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="G115" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G115" s="23" t="s">
-        <v>437</v>
-      </c>
       <c r="H115" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="N115" s="13" t="s">
         <v>438</v>
-      </c>
-      <c r="N115" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
@@ -10646,7 +10639,7 @@
       </c>
       <c r="AL115" s="7"/>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
         <v>104</v>
       </c>
@@ -10657,37 +10650,37 @@
         <v>39</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E116" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F116" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="G116" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G116" s="23" t="s">
-        <v>437</v>
-      </c>
       <c r="H116" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N116" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
@@ -10716,7 +10709,7 @@
   <autoFilter ref="A1:AL116"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,10 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$116</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="430">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1446,6 +1448,15 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1851,54 +1862,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD115"/>
+  <dimension ref="A1:BD116"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="116:116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="117.51012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="119.651821862348"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="74.4493927125506"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="87.5141700404858"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1023" min="39" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -10650,6 +10661,66 @@
       <c r="AK115" s="8"/>
       <c r="AL115" s="8"/>
     </row>
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="11"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,10 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="427">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1448,15 +1446,6 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1862,54 +1851,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD116"/>
+  <dimension ref="A1:BD115"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="116:116"/>
+      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="119.651821862348"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="74.4493927125506"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="117.51012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.0161943319838"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1023" min="39" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -10661,66 +10650,6 @@
       <c r="AK115" s="8"/>
       <c r="AL115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="37"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="8"/>
-      <c r="Y116" s="8"/>
-      <c r="Z116" s="8"/>
-      <c r="AA116" s="8"/>
-      <c r="AB116" s="8"/>
-      <c r="AC116" s="8"/>
-      <c r="AD116" s="11"/>
-      <c r="AE116" s="8"/>
-      <c r="AF116" s="8"/>
-      <c r="AG116" s="8"/>
-      <c r="AH116" s="8"/>
-      <c r="AI116" s="8"/>
-      <c r="AJ116" s="8" t="n">
-        <v>521</v>
-      </c>
-      <c r="AK116" s="8"/>
-      <c r="AL116" s="8"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AL115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="430">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1446,6 +1447,15 @@
   <si>
     <t xml:space="preserve">OTG
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1851,54 +1861,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD115"/>
+  <dimension ref="A1:BD116"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="A116" activeCellId="0" sqref="116:116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="117.51012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="118.578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="86.7651821862348"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1023" min="39" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -10650,6 +10660,66 @@
       <c r="AK115" s="8"/>
       <c r="AL115" s="8"/>
     </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="11"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -5,25 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EBD11-6CED-4C42-B07E-22AE620DE850}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52170823-3B71-46F7-84C2-A8600FD1F17B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AM$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AM$103</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AM$103</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AM$103</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$103</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$103</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$103</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="402">
   <si>
     <t>Sorting</t>
   </si>
@@ -804,9 +810,6 @@
     <t>SSD Дисплей: Фейсинги</t>
   </si>
   <si>
-    <t>SSD Display: Lead SKU Coca-Cola - 1L/1.5L</t>
-  </si>
-  <si>
     <t>SSD Display: Lead SKU Coca-Cola - 1L</t>
   </si>
   <si>
@@ -1316,12 +1319,18 @@
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1343,8 +1352,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1387,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1372,11 +1402,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1397,6 +1442,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1781,58 +1832,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK103"/>
+  <dimension ref="A1:AML103"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Y85" sqref="Y85"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1"/>
-    <col min="2" max="2" width="15.5546875" style="1"/>
-    <col min="3" max="3" width="25.6640625" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1"/>
+    <col min="2" max="2" width="15.5703125" style="1"/>
+    <col min="3" max="3" width="25.7109375" style="1"/>
     <col min="4" max="4" width="15" style="1"/>
-    <col min="5" max="5" width="20.88671875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="64.21875" style="1"/>
-    <col min="8" max="8" width="91.77734375" style="1"/>
-    <col min="9" max="9" width="58.21875" style="1"/>
-    <col min="10" max="10" width="22.6640625" style="1"/>
-    <col min="11" max="11" width="12.44140625" style="1"/>
-    <col min="12" max="12" width="18.109375" style="1"/>
-    <col min="13" max="13" width="19.21875" style="1"/>
-    <col min="14" max="14" width="31.109375" style="1"/>
-    <col min="15" max="15" width="97.33203125" style="1"/>
-    <col min="16" max="16" width="27" style="1"/>
-    <col min="17" max="17" width="13.21875" style="1"/>
-    <col min="18" max="18" width="26" style="1"/>
-    <col min="19" max="19" width="18.5546875" style="1"/>
-    <col min="20" max="20" width="10.6640625" style="1"/>
-    <col min="21" max="21" width="19.77734375" style="1"/>
-    <col min="22" max="22" width="24.109375" style="1"/>
-    <col min="23" max="23" width="30.88671875" style="1"/>
-    <col min="24" max="24" width="29.88671875" style="1"/>
-    <col min="25" max="25" width="65.33203125" style="1"/>
-    <col min="26" max="26" width="32.33203125" style="1"/>
-    <col min="27" max="27" width="34.77734375" style="1"/>
-    <col min="28" max="28" width="36" style="1"/>
-    <col min="29" max="30" width="21.5546875" style="1"/>
-    <col min="31" max="31" width="18.109375" style="1"/>
-    <col min="32" max="32" width="17.21875" style="1"/>
-    <col min="33" max="33" width="17.77734375" style="1"/>
-    <col min="34" max="34" width="33.21875" style="1"/>
-    <col min="35" max="35" width="114.21875" style="1"/>
-    <col min="36" max="36" width="10.33203125" style="1"/>
-    <col min="37" max="37" width="12" style="1"/>
-    <col min="38" max="38" width="14.6640625" style="1"/>
-    <col min="39" max="39" width="13.109375" style="1"/>
-    <col min="40" max="1025" width="12" style="1"/>
+    <col min="5" max="5" width="20.85546875" style="1"/>
+    <col min="6" max="6" width="64.28515625" style="1"/>
+    <col min="7" max="7" width="91.7109375" style="1"/>
+    <col min="8" max="8" width="58.28515625" style="1"/>
+    <col min="9" max="9" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="1"/>
+    <col min="12" max="12" width="12.42578125" style="1"/>
+    <col min="13" max="13" width="18.140625" style="1"/>
+    <col min="14" max="14" width="19.28515625" style="1"/>
+    <col min="15" max="15" width="31.140625" style="1"/>
+    <col min="16" max="16" width="97.28515625" style="1"/>
+    <col min="17" max="17" width="27" style="1"/>
+    <col min="18" max="18" width="13.28515625" style="1"/>
+    <col min="19" max="19" width="26" style="1"/>
+    <col min="20" max="20" width="18.5703125" style="1"/>
+    <col min="21" max="21" width="10.7109375" style="1"/>
+    <col min="22" max="22" width="19.7109375" style="1"/>
+    <col min="23" max="23" width="24.140625" style="1"/>
+    <col min="24" max="24" width="30.85546875" style="1"/>
+    <col min="25" max="25" width="29.85546875" style="1"/>
+    <col min="26" max="26" width="65.28515625" style="1"/>
+    <col min="27" max="27" width="32.28515625" style="1"/>
+    <col min="28" max="28" width="34.7109375" style="1"/>
+    <col min="29" max="29" width="36" style="1"/>
+    <col min="30" max="31" width="21.5703125" style="1"/>
+    <col min="32" max="32" width="18.140625" style="1"/>
+    <col min="33" max="33" width="17.28515625" style="1"/>
+    <col min="34" max="34" width="17.7109375" style="1"/>
+    <col min="35" max="35" width="33.28515625" style="1"/>
+    <col min="36" max="36" width="114.28515625" style="1"/>
+    <col min="37" max="37" width="10.28515625" style="1"/>
+    <col min="38" max="38" width="12" style="1"/>
+    <col min="39" max="39" width="14.7109375" style="1"/>
+    <col min="40" max="40" width="13.140625" style="1"/>
+    <col min="41" max="1026" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1025" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1848,107 +1900,113 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1962,17 +2020,19 @@
         <v>40</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2"/>
+      <c r="I2" s="9" t="str">
+        <f>IF(FIND("Availability",F2)&gt;0,"Availability")</f>
+        <v>Availability</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1998,16 +2058,16 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-      <c r="AJ2" s="1">
+      <c r="AJ2"/>
+      <c r="AK2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>300</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
@@ -2993,8 +3053,9 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
-    </row>
-    <row r="3" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AMK2"/>
+    </row>
+    <row r="3" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3010,17 +3071,22 @@
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3"/>
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3:I39" si="0">IF(FIND("Availability",F3)&gt;0,"Availability")</f>
+        <v>Availability</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -3040,28 +3106,29 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3"/>
+      <c r="AE3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3" s="1">
+      <c r="AJ3"/>
+      <c r="AK3" s="1">
         <v>2</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>1</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN3" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3077,72 +3144,72 @@
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J4"/>
-      <c r="K4" s="1">
+      <c r="I4"/>
+      <c r="K4"/>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4"/>
+      <c r="S4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4" s="1" t="s">
+      <c r="W4"/>
+      <c r="X4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA4"/>
+      <c r="Z4"/>
+      <c r="AA4" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB4"/>
       <c r="AC4"/>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4"/>
+      <c r="AE4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
-      <c r="AJ4" s="1">
+      <c r="AJ4"/>
+      <c r="AK4" s="1">
         <v>3</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>2</v>
       </c>
-      <c r="AL4"/>
-      <c r="AM4" s="1">
+      <c r="AM4"/>
+      <c r="AN4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3158,72 +3225,72 @@
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5"/>
+      <c r="K5"/>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5"/>
+      <c r="S5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5" s="1" t="s">
+      <c r="W5"/>
+      <c r="X5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA5"/>
+      <c r="Z5"/>
+      <c r="AA5" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5"/>
+      <c r="AE5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
-      <c r="AJ5" s="1">
-        <v>3</v>
-      </c>
+      <c r="AJ5"/>
       <c r="AK5" s="1">
         <v>3</v>
       </c>
-      <c r="AL5"/>
-      <c r="AM5" s="1">
+      <c r="AL5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3239,72 +3306,72 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6"/>
+      <c r="K6"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="1" t="s">
+      <c r="R6"/>
+      <c r="S6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6" s="1" t="s">
+      <c r="W6"/>
+      <c r="X6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X6"/>
       <c r="Y6"/>
-      <c r="Z6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA6"/>
+      <c r="Z6"/>
+      <c r="AA6" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6"/>
+      <c r="AE6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
-      <c r="AJ6" s="1">
+      <c r="AJ6"/>
+      <c r="AK6" s="1">
         <v>3</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>4</v>
       </c>
-      <c r="AL6"/>
-      <c r="AM6" s="1">
+      <c r="AM6"/>
+      <c r="AN6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3320,72 +3387,72 @@
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7"/>
-      <c r="K7" s="1">
+      <c r="I7"/>
+      <c r="K7"/>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="1" t="s">
+      <c r="N7"/>
+      <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7"/>
+      <c r="S7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7" s="1" t="s">
+      <c r="W7"/>
+      <c r="X7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA7"/>
+      <c r="Z7"/>
+      <c r="AA7" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7"/>
+      <c r="AE7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
-      <c r="AJ7" s="1">
+      <c r="AJ7"/>
+      <c r="AK7" s="1">
         <v>3</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>5</v>
       </c>
-      <c r="AL7"/>
-      <c r="AM7" s="1">
+      <c r="AM7"/>
+      <c r="AN7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3401,72 +3468,72 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8"/>
+      <c r="K8"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="1" t="s">
+      <c r="R8"/>
+      <c r="S8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
-      <c r="W8" s="1" t="s">
+      <c r="W8"/>
+      <c r="X8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA8"/>
+      <c r="Z8"/>
+      <c r="AA8" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8"/>
+      <c r="AE8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
-      <c r="AJ8" s="1">
+      <c r="AJ8"/>
+      <c r="AK8" s="1">
         <v>3</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>16</v>
       </c>
-      <c r="AL8"/>
-      <c r="AM8" s="1">
+      <c r="AM8"/>
+      <c r="AN8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3482,72 +3549,72 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9"/>
+      <c r="K9"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="1" t="s">
+      <c r="R9"/>
+      <c r="S9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
-      <c r="W9" s="1" t="s">
+      <c r="W9"/>
+      <c r="X9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X9"/>
       <c r="Y9"/>
-      <c r="Z9" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA9"/>
+      <c r="Z9"/>
+      <c r="AA9" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB9"/>
       <c r="AC9"/>
-      <c r="AD9" s="1" t="s">
+      <c r="AD9"/>
+      <c r="AE9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
-      <c r="AJ9" s="1">
+      <c r="AJ9"/>
+      <c r="AK9" s="1">
         <v>3</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>7</v>
       </c>
-      <c r="AL9"/>
-      <c r="AM9" s="1">
+      <c r="AM9"/>
+      <c r="AN9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3563,72 +3630,72 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10"/>
+      <c r="S10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
-      <c r="W10" s="1" t="s">
+      <c r="W10"/>
+      <c r="X10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X10"/>
       <c r="Y10"/>
-      <c r="Z10" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA10"/>
+      <c r="Z10"/>
+      <c r="AA10" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB10"/>
       <c r="AC10"/>
-      <c r="AD10" s="1" t="s">
+      <c r="AD10"/>
+      <c r="AE10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AF10" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
-      <c r="AJ10" s="1">
+      <c r="AJ10"/>
+      <c r="AK10" s="1">
         <v>3</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>8</v>
       </c>
-      <c r="AL10"/>
-      <c r="AM10" s="1">
+      <c r="AM10"/>
+      <c r="AN10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3644,72 +3711,72 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="1" t="s">
+      <c r="R11"/>
+      <c r="S11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-      <c r="W11" s="1" t="s">
+      <c r="W11"/>
+      <c r="X11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA11"/>
+      <c r="Z11"/>
+      <c r="AA11" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11"/>
+      <c r="AE11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
-      <c r="AJ11" s="1">
+      <c r="AJ11"/>
+      <c r="AK11" s="1">
         <v>3</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>9</v>
       </c>
-      <c r="AL11"/>
-      <c r="AM11" s="1">
+      <c r="AM11"/>
+      <c r="AN11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3725,72 +3792,72 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" s="1" t="s">
+      <c r="R12"/>
+      <c r="S12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
-      <c r="W12" s="1" t="s">
+      <c r="W12"/>
+      <c r="X12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X12"/>
       <c r="Y12"/>
-      <c r="Z12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA12"/>
+      <c r="Z12"/>
+      <c r="AA12" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB12"/>
       <c r="AC12"/>
-      <c r="AD12" s="1" t="s">
+      <c r="AD12"/>
+      <c r="AE12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
-      <c r="AJ12" s="1">
+      <c r="AJ12"/>
+      <c r="AK12" s="1">
         <v>3</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>14</v>
       </c>
-      <c r="AL12"/>
-      <c r="AM12" s="1">
+      <c r="AM12"/>
+      <c r="AN12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3806,72 +3873,72 @@
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J13"/>
-      <c r="K13" s="1">
+      <c r="I13"/>
+      <c r="K13"/>
+      <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="1" t="s">
+      <c r="N13"/>
+      <c r="O13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="1" t="s">
+      <c r="R13"/>
+      <c r="S13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
-      <c r="W13" s="1" t="s">
+      <c r="W13"/>
+      <c r="X13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X13"/>
       <c r="Y13"/>
-      <c r="Z13" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA13"/>
+      <c r="Z13"/>
+      <c r="AA13" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB13"/>
       <c r="AC13"/>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13"/>
+      <c r="AE13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
-      <c r="AJ13" s="1">
+      <c r="AJ13"/>
+      <c r="AK13" s="1">
         <v>3</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>15</v>
       </c>
-      <c r="AL13"/>
-      <c r="AM13" s="1">
+      <c r="AM13"/>
+      <c r="AN13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3887,72 +3954,72 @@
       <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J14"/>
-      <c r="K14" s="1">
+      <c r="I14"/>
+      <c r="K14"/>
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14"/>
+      <c r="O14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14" s="1" t="s">
+      <c r="R14"/>
+      <c r="S14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
-      <c r="W14" s="1" t="s">
+      <c r="W14"/>
+      <c r="X14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA14"/>
+      <c r="Z14"/>
+      <c r="AA14" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB14"/>
       <c r="AC14"/>
-      <c r="AD14" s="1" t="s">
+      <c r="AD14"/>
+      <c r="AE14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
-      <c r="AJ14" s="1">
+      <c r="AJ14"/>
+      <c r="AK14" s="1">
         <v>3</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>6</v>
       </c>
-      <c r="AL14"/>
-      <c r="AM14" s="1">
+      <c r="AM14"/>
+      <c r="AN14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3968,72 +4035,72 @@
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>42099697</v>
       </c>
-      <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15" s="1" t="s">
+      <c r="R15"/>
+      <c r="S15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
-      <c r="W15" s="1" t="s">
+      <c r="W15"/>
+      <c r="X15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X15"/>
       <c r="Y15"/>
-      <c r="Z15" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA15"/>
+      <c r="Z15"/>
+      <c r="AA15" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB15"/>
       <c r="AC15"/>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15"/>
+      <c r="AE15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
-      <c r="AJ15" s="1">
+      <c r="AJ15"/>
+      <c r="AK15" s="1">
         <v>3</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <v>603</v>
       </c>
-      <c r="AL15"/>
-      <c r="AM15" s="1">
+      <c r="AM15"/>
+      <c r="AN15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4049,72 +4116,72 @@
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" s="1" t="s">
+      <c r="R16"/>
+      <c r="S16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
-      <c r="W16" s="1" t="s">
+      <c r="W16"/>
+      <c r="X16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA16"/>
+      <c r="Z16"/>
+      <c r="AA16" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB16"/>
       <c r="AC16"/>
-      <c r="AD16" s="1" t="s">
+      <c r="AD16"/>
+      <c r="AE16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
-      <c r="AJ16" s="1">
+      <c r="AJ16"/>
+      <c r="AK16" s="1">
         <v>3</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>19</v>
       </c>
-      <c r="AL16"/>
-      <c r="AM16" s="1">
+      <c r="AM16"/>
+      <c r="AN16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4130,72 +4197,72 @@
       <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17"/>
+      <c r="K17"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" s="1" t="s">
+      <c r="R17"/>
+      <c r="S17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
-      <c r="W17" s="1" t="s">
+      <c r="W17"/>
+      <c r="X17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X17"/>
       <c r="Y17"/>
-      <c r="Z17" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA17"/>
+      <c r="Z17"/>
+      <c r="AA17" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB17"/>
       <c r="AC17"/>
-      <c r="AD17" s="1" t="s">
+      <c r="AD17"/>
+      <c r="AE17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
-      <c r="AJ17" s="1">
+      <c r="AJ17"/>
+      <c r="AK17" s="1">
         <v>3</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>20</v>
       </c>
-      <c r="AL17"/>
-      <c r="AM17" s="1">
+      <c r="AM17"/>
+      <c r="AN17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4211,72 +4278,72 @@
       <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18"/>
+      <c r="K18"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18" s="1" t="s">
+      <c r="R18"/>
+      <c r="S18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
-      <c r="W18" s="1" t="s">
+      <c r="W18"/>
+      <c r="X18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X18"/>
       <c r="Y18"/>
-      <c r="Z18" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA18"/>
+      <c r="Z18"/>
+      <c r="AA18" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB18"/>
       <c r="AC18"/>
-      <c r="AD18" s="1" t="s">
+      <c r="AD18"/>
+      <c r="AE18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
-      <c r="AJ18" s="1">
+      <c r="AJ18"/>
+      <c r="AK18" s="1">
         <v>3</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>21</v>
       </c>
-      <c r="AL18"/>
-      <c r="AM18" s="1">
+      <c r="AM18"/>
+      <c r="AN18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4292,72 +4359,72 @@
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F19"/>
+      <c r="F19" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" s="1">
+      <c r="I19"/>
+      <c r="K19"/>
+      <c r="L19" s="1">
         <v>1</v>
       </c>
-      <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="1" t="s">
+      <c r="N19"/>
+      <c r="O19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" s="1" t="s">
+      <c r="R19"/>
+      <c r="S19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
-      <c r="W19" s="1" t="s">
+      <c r="W19"/>
+      <c r="X19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X19"/>
       <c r="Y19"/>
-      <c r="Z19" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA19"/>
+      <c r="Z19"/>
+      <c r="AA19" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB19"/>
       <c r="AC19"/>
-      <c r="AD19" s="1" t="s">
+      <c r="AD19"/>
+      <c r="AE19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
-      <c r="AJ19" s="1">
+      <c r="AJ19"/>
+      <c r="AK19" s="1">
         <v>3</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>18</v>
       </c>
-      <c r="AL19"/>
-      <c r="AM19" s="1">
+      <c r="AM19"/>
+      <c r="AN19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4373,72 +4440,72 @@
       <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20"/>
+      <c r="K20"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>5449000064110</v>
       </c>
-      <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" s="1" t="s">
+      <c r="R20"/>
+      <c r="S20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
-      <c r="W20" s="1" t="s">
+      <c r="W20"/>
+      <c r="X20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA20"/>
+      <c r="Z20"/>
+      <c r="AA20" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB20"/>
       <c r="AC20"/>
-      <c r="AD20" s="1" t="s">
+      <c r="AD20"/>
+      <c r="AE20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
-      <c r="AJ20" s="1">
+      <c r="AJ20"/>
+      <c r="AK20" s="1">
         <v>3</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>602</v>
       </c>
-      <c r="AL20"/>
-      <c r="AM20" s="1">
+      <c r="AM20"/>
+      <c r="AN20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4454,72 +4521,72 @@
       <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="G21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21"/>
+      <c r="K21"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>5449000046390</v>
       </c>
-      <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" s="1" t="s">
+      <c r="R21"/>
+      <c r="S21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
-      <c r="W21" s="1" t="s">
+      <c r="W21"/>
+      <c r="X21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X21"/>
       <c r="Y21"/>
-      <c r="Z21" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA21"/>
+      <c r="Z21"/>
+      <c r="AA21" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB21"/>
       <c r="AC21"/>
-      <c r="AD21" s="1" t="s">
+      <c r="AD21"/>
+      <c r="AE21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
-      <c r="AJ21" s="1">
+      <c r="AJ21"/>
+      <c r="AK21" s="1">
         <v>3</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>24</v>
       </c>
-      <c r="AL21"/>
-      <c r="AM21" s="1">
+      <c r="AM21"/>
+      <c r="AN21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4535,72 +4602,72 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22"/>
+      <c r="F22" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22"/>
+      <c r="K22"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22" s="1" t="s">
+      <c r="R22"/>
+      <c r="S22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
-      <c r="W22" s="1" t="s">
+      <c r="W22"/>
+      <c r="X22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X22"/>
       <c r="Y22"/>
-      <c r="Z22" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA22"/>
+      <c r="Z22"/>
+      <c r="AA22" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB22"/>
       <c r="AC22"/>
-      <c r="AD22" s="1" t="s">
+      <c r="AD22"/>
+      <c r="AE22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AF22" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22" s="1">
+      <c r="AJ22"/>
+      <c r="AK22" s="1">
         <v>3</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>23</v>
       </c>
-      <c r="AL22"/>
-      <c r="AM22" s="1">
+      <c r="AM22"/>
+      <c r="AN22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -4616,17 +4683,22 @@
       <c r="E23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F23"/>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J23"/>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Availability</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -4646,28 +4718,29 @@
       <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
-      <c r="AD23" s="1" t="s">
+      <c r="AD23"/>
+      <c r="AE23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
-      <c r="AJ23" s="1">
+      <c r="AJ23"/>
+      <c r="AK23" s="1">
         <v>2</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>25</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AM23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -4683,72 +4756,72 @@
       <c r="E24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F24"/>
+      <c r="F24" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24"/>
+      <c r="K24"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" s="1" t="s">
+      <c r="R24"/>
+      <c r="S24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="W24" s="1" t="s">
+      <c r="W24"/>
+      <c r="X24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X24"/>
       <c r="Y24"/>
-      <c r="Z24" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA24"/>
+      <c r="Z24"/>
+      <c r="AA24" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB24"/>
       <c r="AC24"/>
-      <c r="AD24" s="1" t="s">
+      <c r="AD24"/>
+      <c r="AE24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AF24" s="1">
         <v>1.5350000000000001E-2</v>
       </c>
-      <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
-      <c r="AJ24" s="1">
+      <c r="AJ24"/>
+      <c r="AK24" s="1">
         <v>3</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>26</v>
       </c>
-      <c r="AL24"/>
-      <c r="AM24" s="1">
+      <c r="AM24"/>
+      <c r="AN24" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30</v>
       </c>
@@ -4764,72 +4837,72 @@
       <c r="E25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25"/>
+      <c r="K25"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" s="1" t="s">
+      <c r="R25"/>
+      <c r="S25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
-      <c r="W25" s="1" t="s">
+      <c r="W25"/>
+      <c r="X25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA25"/>
+      <c r="Z25"/>
+      <c r="AA25" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB25"/>
       <c r="AC25"/>
-      <c r="AD25" s="1" t="s">
+      <c r="AD25"/>
+      <c r="AE25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
-      <c r="AJ25" s="1">
+      <c r="AJ25"/>
+      <c r="AK25" s="1">
         <v>3</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <v>27</v>
       </c>
-      <c r="AL25"/>
-      <c r="AM25" s="1">
+      <c r="AM25"/>
+      <c r="AN25" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>31</v>
       </c>
@@ -4845,72 +4918,72 @@
       <c r="E26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26"/>
+      <c r="K26"/>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" s="1" t="s">
+      <c r="R26"/>
+      <c r="S26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="W26" s="1" t="s">
+      <c r="W26"/>
+      <c r="X26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X26"/>
       <c r="Y26"/>
-      <c r="Z26" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA26"/>
+      <c r="Z26"/>
+      <c r="AA26" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB26"/>
       <c r="AC26"/>
-      <c r="AD26" s="1" t="s">
+      <c r="AD26"/>
+      <c r="AE26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AF26" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
-      <c r="AJ26" s="1">
+      <c r="AJ26"/>
+      <c r="AK26" s="1">
         <v>3</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>28</v>
       </c>
-      <c r="AL26"/>
-      <c r="AM26" s="1">
+      <c r="AM26"/>
+      <c r="AN26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>32</v>
       </c>
@@ -4926,72 +4999,72 @@
       <c r="E27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27"/>
+      <c r="K27"/>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27" s="1" t="s">
+      <c r="R27"/>
+      <c r="S27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
-      <c r="W27" s="1" t="s">
+      <c r="W27"/>
+      <c r="X27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X27"/>
       <c r="Y27"/>
-      <c r="Z27" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA27"/>
+      <c r="Z27"/>
+      <c r="AA27" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB27"/>
       <c r="AC27"/>
-      <c r="AD27" s="1" t="s">
+      <c r="AD27"/>
+      <c r="AE27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AF27" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
-      <c r="AJ27" s="1">
+      <c r="AJ27"/>
+      <c r="AK27" s="1">
         <v>3</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <v>29</v>
       </c>
-      <c r="AL27"/>
-      <c r="AM27" s="1">
+      <c r="AM27"/>
+      <c r="AN27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -5007,17 +5080,22 @@
       <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J28"/>
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Availability</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -5037,28 +5115,29 @@
       <c r="AA28"/>
       <c r="AB28"/>
       <c r="AC28"/>
-      <c r="AD28" s="1" t="s">
+      <c r="AD28"/>
+      <c r="AE28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
-      <c r="AJ28" s="1">
+      <c r="AJ28"/>
+      <c r="AK28" s="1">
         <v>2</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <v>32</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AM28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AN28" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -5074,72 +5153,72 @@
       <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F29"/>
+      <c r="F29" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29"/>
+      <c r="K29"/>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" s="1" t="s">
+      <c r="R29"/>
+      <c r="S29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
-      <c r="W29" s="1" t="s">
+      <c r="W29"/>
+      <c r="X29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA29"/>
+      <c r="Z29"/>
+      <c r="AA29" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB29"/>
       <c r="AC29"/>
-      <c r="AD29" s="1" t="s">
+      <c r="AD29"/>
+      <c r="AE29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AF29" s="1">
         <v>1.5350000000000001E-2</v>
       </c>
-      <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
-      <c r="AJ29" s="1">
+      <c r="AJ29"/>
+      <c r="AK29" s="1">
         <v>3</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <v>33</v>
       </c>
-      <c r="AL29"/>
-      <c r="AM29" s="1">
+      <c r="AM29"/>
+      <c r="AN29" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -5155,72 +5234,72 @@
       <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F30"/>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30"/>
+      <c r="K30"/>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30" s="1" t="s">
+      <c r="R30"/>
+      <c r="S30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
-      <c r="W30" s="1" t="s">
+      <c r="W30"/>
+      <c r="X30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X30"/>
       <c r="Y30"/>
-      <c r="Z30" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA30"/>
+      <c r="Z30"/>
+      <c r="AA30" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB30"/>
       <c r="AC30"/>
-      <c r="AD30" s="1" t="s">
+      <c r="AD30"/>
+      <c r="AE30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AF30" s="1">
         <v>1.5350000000000001E-2</v>
       </c>
-      <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
-      <c r="AJ30" s="1">
+      <c r="AJ30"/>
+      <c r="AK30" s="1">
         <v>3</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>34</v>
       </c>
-      <c r="AL30"/>
-      <c r="AM30" s="1">
+      <c r="AM30"/>
+      <c r="AN30" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -5236,72 +5315,72 @@
       <c r="E31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F31"/>
+      <c r="F31" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31"/>
+      <c r="K31"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31" s="1" t="s">
+      <c r="R31"/>
+      <c r="S31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
-      <c r="W31" s="1" t="s">
+      <c r="W31"/>
+      <c r="X31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X31"/>
       <c r="Y31"/>
-      <c r="Z31" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA31"/>
+      <c r="Z31"/>
+      <c r="AA31" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB31"/>
       <c r="AC31"/>
-      <c r="AD31" s="1" t="s">
+      <c r="AD31"/>
+      <c r="AE31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF31"/>
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
-      <c r="AJ31" s="1">
+      <c r="AJ31"/>
+      <c r="AK31" s="1">
         <v>3</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>36</v>
       </c>
-      <c r="AL31"/>
-      <c r="AM31" s="1">
+      <c r="AM31"/>
+      <c r="AN31" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -5317,72 +5396,72 @@
       <c r="E32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F32"/>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32"/>
+      <c r="K32"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>5060517888794</v>
       </c>
-      <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" s="1" t="s">
+      <c r="R32"/>
+      <c r="S32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
-      <c r="W32" s="1" t="s">
+      <c r="W32"/>
+      <c r="X32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X32"/>
       <c r="Y32"/>
-      <c r="Z32" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA32"/>
+      <c r="Z32"/>
+      <c r="AA32" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB32"/>
       <c r="AC32"/>
-      <c r="AD32" s="1" t="s">
+      <c r="AD32"/>
+      <c r="AE32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AF32" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="1">
+      <c r="AJ32"/>
+      <c r="AK32" s="1">
         <v>3</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>650</v>
       </c>
-      <c r="AL32"/>
-      <c r="AM32" s="1">
+      <c r="AM32"/>
+      <c r="AN32" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -5398,72 +5477,72 @@
       <c r="E33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J33"/>
-      <c r="K33" s="1">
+      <c r="I33"/>
+      <c r="K33"/>
+      <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="4" t="s">
+      <c r="N33"/>
+      <c r="O33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" s="1" t="s">
+      <c r="R33"/>
+      <c r="S33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
-      <c r="W33" s="1" t="s">
+      <c r="W33"/>
+      <c r="X33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA33"/>
+      <c r="Z33"/>
+      <c r="AA33" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB33"/>
       <c r="AC33"/>
-      <c r="AD33" s="1" t="s">
+      <c r="AD33"/>
+      <c r="AE33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AF33" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF33"/>
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="1">
+      <c r="AJ33"/>
+      <c r="AK33" s="1">
         <v>3</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AL33" s="1">
         <v>37</v>
       </c>
-      <c r="AL33"/>
-      <c r="AM33" s="1">
+      <c r="AM33"/>
+      <c r="AN33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42</v>
       </c>
@@ -5479,17 +5558,22 @@
       <c r="E34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J34"/>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Availability</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -5509,28 +5593,29 @@
       <c r="AA34"/>
       <c r="AB34"/>
       <c r="AC34"/>
-      <c r="AD34" s="1" t="s">
+      <c r="AD34"/>
+      <c r="AE34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE34"/>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="1">
+      <c r="AJ34"/>
+      <c r="AK34" s="1">
         <v>2</v>
       </c>
-      <c r="AK34" s="1">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="3" t="s">
+      <c r="AL34" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AN34" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43</v>
       </c>
@@ -5546,72 +5631,72 @@
       <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F35"/>
+      <c r="F35" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35"/>
+      <c r="K35"/>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35" s="1" t="s">
+      <c r="R35"/>
+      <c r="S35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
-      <c r="W35" s="1" t="s">
+      <c r="W35"/>
+      <c r="X35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA35"/>
+      <c r="Z35"/>
+      <c r="AA35" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB35"/>
       <c r="AC35"/>
-      <c r="AD35" s="1" t="s">
+      <c r="AD35"/>
+      <c r="AE35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AF35" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF35"/>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="1">
+      <c r="AJ35"/>
+      <c r="AK35" s="1">
         <v>3</v>
       </c>
-      <c r="AK35" s="1">
-        <v>39</v>
-      </c>
-      <c r="AL35"/>
-      <c r="AM35" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL35" s="1">
+        <v>39</v>
+      </c>
+      <c r="AM35"/>
+      <c r="AN35" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44</v>
       </c>
@@ -5627,72 +5712,72 @@
       <c r="E36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36"/>
+      <c r="K36"/>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" s="1" t="s">
+      <c r="R36"/>
+      <c r="S36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
-      <c r="W36" s="1" t="s">
+      <c r="W36"/>
+      <c r="X36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X36"/>
       <c r="Y36"/>
-      <c r="Z36" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA36"/>
+      <c r="Z36"/>
+      <c r="AA36" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB36"/>
       <c r="AC36"/>
-      <c r="AD36" s="1" t="s">
+      <c r="AD36"/>
+      <c r="AE36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AF36" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF36"/>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-      <c r="AJ36" s="1">
+      <c r="AJ36"/>
+      <c r="AK36" s="1">
         <v>3</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AL36" s="1">
         <v>40</v>
       </c>
-      <c r="AL36"/>
-      <c r="AM36" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM36"/>
+      <c r="AN36" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45</v>
       </c>
@@ -5708,72 +5793,72 @@
       <c r="E37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="G37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37"/>
+      <c r="K37"/>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="1" t="s">
+      <c r="R37"/>
+      <c r="S37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
-      <c r="W37" s="1" t="s">
+      <c r="W37"/>
+      <c r="X37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X37"/>
       <c r="Y37"/>
-      <c r="Z37" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA37"/>
+      <c r="Z37"/>
+      <c r="AA37" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB37"/>
       <c r="AC37"/>
-      <c r="AD37" s="1" t="s">
+      <c r="AD37"/>
+      <c r="AE37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AF37" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF37"/>
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
-      <c r="AJ37" s="1">
+      <c r="AJ37"/>
+      <c r="AK37" s="1">
         <v>3</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AL37" s="1">
         <v>41</v>
       </c>
-      <c r="AL37"/>
-      <c r="AM37" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM37"/>
+      <c r="AN37" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46</v>
       </c>
@@ -5789,72 +5874,72 @@
       <c r="E38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F38"/>
+      <c r="F38" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="G38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38"/>
+      <c r="K38"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" s="1" t="s">
+      <c r="R38"/>
+      <c r="S38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
-      <c r="W38" s="1" t="s">
+      <c r="W38"/>
+      <c r="X38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X38"/>
       <c r="Y38"/>
-      <c r="Z38" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA38"/>
+      <c r="Z38"/>
+      <c r="AA38" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB38"/>
       <c r="AC38"/>
-      <c r="AD38" s="1" t="s">
+      <c r="AD38"/>
+      <c r="AE38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AF38" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
-      <c r="AJ38" s="1">
+      <c r="AJ38"/>
+      <c r="AK38" s="1">
         <v>3</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AL38" s="1">
         <v>42</v>
       </c>
-      <c r="AL38"/>
-      <c r="AM38" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM38"/>
+      <c r="AN38" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>49</v>
       </c>
@@ -5870,17 +5955,22 @@
       <c r="E39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F39"/>
+      <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J39"/>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Availability</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -5900,28 +5990,29 @@
       <c r="AA39"/>
       <c r="AB39"/>
       <c r="AC39"/>
-      <c r="AD39" s="1" t="s">
+      <c r="AD39"/>
+      <c r="AE39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE39"/>
       <c r="AF39"/>
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
-      <c r="AJ39" s="1">
+      <c r="AJ39"/>
+      <c r="AK39" s="1">
         <v>2</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AL39" s="1">
         <v>45</v>
       </c>
-      <c r="AL39" s="3" t="s">
+      <c r="AM39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AN39" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -5937,72 +6028,71 @@
       <c r="E40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F40"/>
+      <c r="F40" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="G40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" s="1" t="s">
+      <c r="R40"/>
+      <c r="S40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
-      <c r="W40" s="1" t="s">
+      <c r="W40"/>
+      <c r="X40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X40"/>
       <c r="Y40"/>
-      <c r="Z40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA40"/>
+      <c r="Z40"/>
+      <c r="AA40" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB40"/>
       <c r="AC40"/>
-      <c r="AD40" s="1" t="s">
+      <c r="AD40"/>
+      <c r="AE40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AF40" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF40"/>
       <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
-      <c r="AJ40" s="1">
+      <c r="AJ40"/>
+      <c r="AK40" s="1">
         <v>3</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AL40" s="1">
         <v>46</v>
       </c>
-      <c r="AL40"/>
-      <c r="AM40" s="1">
+      <c r="AM40"/>
+      <c r="AN40" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>51</v>
       </c>
@@ -6018,72 +6108,71 @@
       <c r="E41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F41"/>
+      <c r="F41" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="G41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" s="1" t="s">
+      <c r="R41"/>
+      <c r="S41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
-      <c r="W41" s="1" t="s">
+      <c r="W41"/>
+      <c r="X41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X41"/>
       <c r="Y41"/>
-      <c r="Z41" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA41"/>
+      <c r="Z41"/>
+      <c r="AA41" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB41"/>
       <c r="AC41"/>
-      <c r="AD41" s="1" t="s">
+      <c r="AD41"/>
+      <c r="AE41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AF41" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF41"/>
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
-      <c r="AJ41" s="1">
+      <c r="AJ41"/>
+      <c r="AK41" s="1">
         <v>3</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AL41" s="1">
         <v>47</v>
       </c>
-      <c r="AL41"/>
-      <c r="AM41" s="1">
+      <c r="AM41"/>
+      <c r="AN41" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>52</v>
       </c>
@@ -6099,72 +6188,71 @@
       <c r="E42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F42"/>
+      <c r="F42" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="G42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" s="1" t="s">
+      <c r="R42"/>
+      <c r="S42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
-      <c r="W42" s="1" t="s">
+      <c r="W42"/>
+      <c r="X42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X42"/>
       <c r="Y42"/>
-      <c r="Z42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA42"/>
+      <c r="Z42"/>
+      <c r="AA42" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB42"/>
       <c r="AC42"/>
-      <c r="AD42" s="1" t="s">
+      <c r="AD42"/>
+      <c r="AE42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AF42" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF42"/>
       <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
-      <c r="AJ42" s="1">
+      <c r="AJ42"/>
+      <c r="AK42" s="1">
         <v>3</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AL42" s="1">
         <v>48</v>
       </c>
-      <c r="AL42"/>
-      <c r="AM42" s="1">
+      <c r="AM42"/>
+      <c r="AN42" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>53</v>
       </c>
@@ -6180,72 +6268,71 @@
       <c r="E43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F43"/>
+      <c r="F43" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="G43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43" s="1" t="s">
+      <c r="R43"/>
+      <c r="S43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
-      <c r="W43" s="1" t="s">
+      <c r="W43"/>
+      <c r="X43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X43"/>
       <c r="Y43"/>
-      <c r="Z43" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA43"/>
+      <c r="Z43"/>
+      <c r="AA43" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB43"/>
       <c r="AC43"/>
-      <c r="AD43" s="1" t="s">
+      <c r="AD43"/>
+      <c r="AE43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AF43" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF43"/>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
-      <c r="AJ43" s="1">
+      <c r="AJ43"/>
+      <c r="AK43" s="1">
         <v>3</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AL43" s="1">
         <v>49</v>
       </c>
-      <c r="AL43"/>
-      <c r="AM43" s="1">
+      <c r="AM43"/>
+      <c r="AN43" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>54</v>
       </c>
@@ -6261,72 +6348,71 @@
       <c r="E44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F44"/>
+      <c r="F44" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="G44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44" s="1" t="s">
+      <c r="R44"/>
+      <c r="S44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T44"/>
       <c r="U44"/>
       <c r="V44"/>
-      <c r="W44" s="1" t="s">
+      <c r="W44"/>
+      <c r="X44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA44"/>
+      <c r="Z44"/>
+      <c r="AA44" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB44"/>
       <c r="AC44"/>
-      <c r="AD44" s="1" t="s">
+      <c r="AD44"/>
+      <c r="AE44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AF44" s="1">
         <v>1.5325E-2</v>
       </c>
-      <c r="AF44"/>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
-      <c r="AJ44" s="1">
+      <c r="AJ44"/>
+      <c r="AK44" s="1">
         <v>3</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AL44" s="1">
         <v>50</v>
       </c>
-      <c r="AL44"/>
-      <c r="AM44" s="1">
+      <c r="AM44"/>
+      <c r="AN44" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>55</v>
       </c>
@@ -6342,72 +6428,71 @@
       <c r="E45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F45"/>
+      <c r="F45" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45" s="1" t="s">
+      <c r="R45"/>
+      <c r="S45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
-      <c r="W45" s="1" t="s">
+      <c r="W45"/>
+      <c r="X45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA45"/>
+      <c r="Z45"/>
+      <c r="AA45" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB45"/>
       <c r="AC45"/>
-      <c r="AD45" s="1" t="s">
+      <c r="AD45"/>
+      <c r="AE45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE45" s="1">
+      <c r="AF45" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF45"/>
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
-      <c r="AJ45" s="1">
+      <c r="AJ45"/>
+      <c r="AK45" s="1">
         <v>3</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AL45" s="1">
         <v>53</v>
       </c>
-      <c r="AL45"/>
-      <c r="AM45" s="1">
+      <c r="AM45"/>
+      <c r="AN45" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>56</v>
       </c>
@@ -6423,72 +6508,71 @@
       <c r="E46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F46"/>
+      <c r="F46" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="G46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46" s="1" t="s">
+      <c r="R46"/>
+      <c r="S46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
-      <c r="W46" s="1" t="s">
+      <c r="W46"/>
+      <c r="X46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X46"/>
       <c r="Y46"/>
-      <c r="Z46" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA46"/>
+      <c r="Z46"/>
+      <c r="AA46" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB46"/>
       <c r="AC46"/>
-      <c r="AD46" s="1" t="s">
+      <c r="AD46"/>
+      <c r="AE46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AF46" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF46"/>
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
-      <c r="AJ46" s="1">
+      <c r="AJ46"/>
+      <c r="AK46" s="1">
         <v>3</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AL46" s="1">
         <v>54</v>
       </c>
-      <c r="AL46"/>
-      <c r="AM46" s="1">
+      <c r="AM46"/>
+      <c r="AN46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>57</v>
       </c>
@@ -6504,72 +6588,71 @@
       <c r="E47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F47"/>
+      <c r="F47" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" s="1" t="s">
+      <c r="R47"/>
+      <c r="S47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
-      <c r="W47" s="1" t="s">
+      <c r="W47"/>
+      <c r="X47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X47"/>
       <c r="Y47"/>
-      <c r="Z47" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA47"/>
+      <c r="Z47"/>
+      <c r="AA47" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB47"/>
       <c r="AC47"/>
-      <c r="AD47" s="1" t="s">
+      <c r="AD47"/>
+      <c r="AE47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AF47" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF47"/>
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
-      <c r="AJ47" s="1">
+      <c r="AJ47"/>
+      <c r="AK47" s="1">
         <v>3</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AL47" s="1">
         <v>55</v>
       </c>
-      <c r="AL47"/>
-      <c r="AM47" s="1">
+      <c r="AM47"/>
+      <c r="AN47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>58</v>
       </c>
@@ -6585,72 +6668,71 @@
       <c r="E48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F48"/>
+      <c r="F48" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" s="1" t="s">
+      <c r="R48"/>
+      <c r="S48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
-      <c r="W48" s="1" t="s">
+      <c r="W48"/>
+      <c r="X48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X48"/>
       <c r="Y48"/>
-      <c r="Z48" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA48"/>
+      <c r="Z48"/>
+      <c r="AA48" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB48"/>
       <c r="AC48"/>
-      <c r="AD48" s="1" t="s">
+      <c r="AD48"/>
+      <c r="AE48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE48" s="1">
+      <c r="AF48" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF48"/>
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
-      <c r="AJ48" s="1">
+      <c r="AJ48"/>
+      <c r="AK48" s="1">
         <v>3</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AL48" s="1">
         <v>56</v>
       </c>
-      <c r="AL48"/>
-      <c r="AM48" s="1">
+      <c r="AM48"/>
+      <c r="AN48" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>59</v>
       </c>
@@ -6666,72 +6748,71 @@
       <c r="E49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F49"/>
+      <c r="F49" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" s="1" t="s">
+      <c r="R49"/>
+      <c r="S49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
-      <c r="W49" s="1" t="s">
+      <c r="W49"/>
+      <c r="X49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X49"/>
       <c r="Y49"/>
-      <c r="Z49" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA49"/>
+      <c r="Z49"/>
+      <c r="AA49" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="AB49"/>
       <c r="AC49"/>
-      <c r="AD49" s="1" t="s">
+      <c r="AD49"/>
+      <c r="AE49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AF49" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF49"/>
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
-      <c r="AJ49" s="1">
+      <c r="AJ49"/>
+      <c r="AK49" s="1">
         <v>3</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AL49" s="1">
         <v>57</v>
       </c>
-      <c r="AL49"/>
-      <c r="AM49" s="1">
+      <c r="AM49"/>
+      <c r="AN49" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>62</v>
       </c>
@@ -6745,17 +6826,15 @@
         <v>40</v>
       </c>
       <c r="E50"/>
-      <c r="F50"/>
+      <c r="F50" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -6768,7 +6847,7 @@
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
-      <c r="X50"/>
+      <c r="W50"/>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
@@ -6780,18 +6859,19 @@
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
-      <c r="AJ50" s="1">
+      <c r="AJ50"/>
+      <c r="AK50" s="1">
         <v>1</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AL50" s="1">
         <v>520</v>
       </c>
-      <c r="AL50" s="3" t="s">
+      <c r="AM50" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AM50"/>
-    </row>
-    <row r="51" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN50"/>
+    </row>
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>63</v>
       </c>
@@ -6805,17 +6885,15 @@
         <v>40</v>
       </c>
       <c r="E51"/>
-      <c r="F51"/>
+      <c r="F51" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -6828,7 +6906,7 @@
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
-      <c r="X51"/>
+      <c r="W51"/>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
@@ -6840,20 +6918,21 @@
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
-      <c r="AJ51" s="1">
+      <c r="AJ51"/>
+      <c r="AK51" s="1">
         <v>1</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AL51" s="1">
         <v>501</v>
       </c>
-      <c r="AL51" s="1">
+      <c r="AM51" s="1">
         <v>58</v>
       </c>
-      <c r="AM51" s="1">
+      <c r="AN51" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>64</v>
       </c>
@@ -6867,60 +6946,59 @@
         <v>40</v>
       </c>
       <c r="E52"/>
-      <c r="F52"/>
+      <c r="F52" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J52"/>
-      <c r="K52" s="1">
+      <c r="K52"/>
+      <c r="L52" s="1">
         <v>15</v>
       </c>
-      <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="1" t="s">
+      <c r="N52"/>
+      <c r="O52" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52" s="1" t="s">
+      <c r="S52"/>
+      <c r="T52" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T52"/>
-      <c r="X52" s="1" t="s">
+      <c r="U52"/>
+      <c r="Y52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AC52"/>
-      <c r="AD52" s="1" t="s">
+      <c r="AA52"/>
+      <c r="AD52"/>
+      <c r="AE52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE52" s="1">
+      <c r="AF52" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH52"/>
       <c r="AI52"/>
-      <c r="AJ52" s="1">
+      <c r="AJ52"/>
+      <c r="AK52" s="1">
         <v>2</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AL52" s="1">
         <v>58</v>
       </c>
-      <c r="AL52"/>
-      <c r="AM52" s="1">
+      <c r="AM52"/>
+      <c r="AN52" s="1">
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>65</v>
       </c>
@@ -6934,48 +7012,47 @@
         <v>40</v>
       </c>
       <c r="E53"/>
-      <c r="F53"/>
+      <c r="F53" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="Q53"/>
+      <c r="P53"/>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-      <c r="X53"/>
+      <c r="U53"/>
       <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AC53"/>
+      <c r="AA53"/>
       <c r="AD53"/>
       <c r="AE53"/>
-      <c r="AH53"/>
+      <c r="AF53"/>
       <c r="AI53"/>
-      <c r="AJ53" s="1">
+      <c r="AJ53"/>
+      <c r="AK53" s="1">
         <v>1</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AL53" s="1">
         <v>503</v>
       </c>
-      <c r="AL53" s="1">
+      <c r="AM53" s="1">
         <v>59</v>
       </c>
-      <c r="AM53" s="1">
+      <c r="AN53" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>66</v>
       </c>
@@ -6989,60 +7066,59 @@
         <v>40</v>
       </c>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J54"/>
-      <c r="K54" s="1">
+      <c r="K54"/>
+      <c r="L54" s="1">
         <v>8</v>
       </c>
-      <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="1" t="s">
+      <c r="N54"/>
+      <c r="O54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54" s="1" t="s">
+      <c r="S54"/>
+      <c r="T54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T54"/>
-      <c r="X54" s="1" t="s">
+      <c r="U54"/>
+      <c r="Y54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AC54"/>
-      <c r="AD54" s="1" t="s">
+      <c r="AA54"/>
+      <c r="AD54"/>
+      <c r="AE54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AF54" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH54"/>
       <c r="AI54"/>
-      <c r="AJ54" s="1">
+      <c r="AJ54"/>
+      <c r="AK54" s="1">
         <v>2</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AL54" s="1">
         <v>59</v>
       </c>
-      <c r="AL54"/>
-      <c r="AM54" s="1">
+      <c r="AM54"/>
+      <c r="AN54" s="1">
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>67</v>
       </c>
@@ -7056,48 +7132,47 @@
         <v>40</v>
       </c>
       <c r="E55"/>
-      <c r="F55"/>
+      <c r="F55" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
-      <c r="Q55"/>
+      <c r="P55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
-      <c r="X55"/>
+      <c r="U55"/>
       <c r="Y55"/>
       <c r="Z55"/>
-      <c r="AC55"/>
+      <c r="AA55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AH55"/>
+      <c r="AF55"/>
       <c r="AI55"/>
-      <c r="AJ55" s="1">
+      <c r="AJ55"/>
+      <c r="AK55" s="1">
         <v>1</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AL55" s="1">
         <v>504</v>
       </c>
-      <c r="AL55" s="1">
+      <c r="AM55" s="1">
         <v>60</v>
       </c>
-      <c r="AM55" s="1">
+      <c r="AN55" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>68</v>
       </c>
@@ -7111,60 +7186,59 @@
         <v>40</v>
       </c>
       <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J56"/>
-      <c r="K56" s="1">
+      <c r="K56"/>
+      <c r="L56" s="1">
         <v>6</v>
       </c>
-      <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="1" t="s">
+      <c r="N56"/>
+      <c r="O56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56" s="1" t="s">
+      <c r="S56"/>
+      <c r="T56" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T56"/>
-      <c r="X56" s="1" t="s">
+      <c r="U56"/>
+      <c r="Y56" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y56"/>
       <c r="Z56"/>
-      <c r="AC56"/>
-      <c r="AD56" s="1" t="s">
+      <c r="AA56"/>
+      <c r="AD56"/>
+      <c r="AE56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AF56" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH56"/>
       <c r="AI56"/>
-      <c r="AJ56" s="1">
+      <c r="AJ56"/>
+      <c r="AK56" s="1">
         <v>2</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AL56" s="1">
         <v>60</v>
       </c>
-      <c r="AL56"/>
-      <c r="AM56" s="1">
+      <c r="AM56"/>
+      <c r="AN56" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>69</v>
       </c>
@@ -7178,48 +7252,47 @@
         <v>40</v>
       </c>
       <c r="E57"/>
-      <c r="F57"/>
+      <c r="F57" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
-      <c r="Q57"/>
+      <c r="P57"/>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
-      <c r="X57"/>
+      <c r="U57"/>
       <c r="Y57"/>
       <c r="Z57"/>
-      <c r="AC57"/>
+      <c r="AA57"/>
       <c r="AD57"/>
       <c r="AE57"/>
-      <c r="AH57"/>
+      <c r="AF57"/>
       <c r="AI57"/>
-      <c r="AJ57" s="1">
+      <c r="AJ57"/>
+      <c r="AK57" s="1">
         <v>1</v>
       </c>
-      <c r="AK57" s="1">
+      <c r="AL57" s="1">
         <v>505</v>
       </c>
-      <c r="AL57" s="1">
+      <c r="AM57" s="1">
         <v>61</v>
       </c>
-      <c r="AM57" s="1">
+      <c r="AN57" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>70</v>
       </c>
@@ -7233,60 +7306,59 @@
         <v>40</v>
       </c>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J58"/>
-      <c r="K58" s="1">
+      <c r="K58"/>
+      <c r="L58" s="1">
         <v>6</v>
       </c>
-      <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="1" t="s">
+      <c r="N58"/>
+      <c r="O58" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="Q58"/>
       <c r="R58"/>
-      <c r="S58" s="1" t="s">
+      <c r="S58"/>
+      <c r="T58" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T58"/>
-      <c r="X58" s="1" t="s">
+      <c r="U58"/>
+      <c r="Y58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y58"/>
       <c r="Z58"/>
-      <c r="AC58"/>
-      <c r="AD58" s="1" t="s">
+      <c r="AA58"/>
+      <c r="AD58"/>
+      <c r="AE58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AF58" s="1">
         <v>0.01</v>
       </c>
-      <c r="AH58"/>
       <c r="AI58"/>
-      <c r="AJ58" s="1">
+      <c r="AJ58"/>
+      <c r="AK58" s="1">
         <v>2</v>
       </c>
-      <c r="AK58" s="1">
+      <c r="AL58" s="1">
         <v>61</v>
       </c>
-      <c r="AL58"/>
-      <c r="AM58" s="1">
+      <c r="AM58"/>
+      <c r="AN58" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>71</v>
       </c>
@@ -7300,48 +7372,47 @@
         <v>40</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
-      <c r="Q59"/>
+      <c r="P59"/>
       <c r="R59"/>
       <c r="S59"/>
       <c r="T59"/>
-      <c r="X59"/>
+      <c r="U59"/>
       <c r="Y59"/>
       <c r="Z59"/>
-      <c r="AC59"/>
+      <c r="AA59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-      <c r="AH59"/>
+      <c r="AF59"/>
       <c r="AI59"/>
-      <c r="AJ59" s="1">
+      <c r="AJ59"/>
+      <c r="AK59" s="1">
         <v>1</v>
       </c>
-      <c r="AK59" s="1">
+      <c r="AL59" s="1">
         <v>502</v>
       </c>
-      <c r="AL59" s="1">
+      <c r="AM59" s="1">
         <v>62</v>
       </c>
-      <c r="AM59" s="1">
+      <c r="AN59" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>72</v>
       </c>
@@ -7355,60 +7426,59 @@
         <v>40</v>
       </c>
       <c r="E60"/>
-      <c r="F60"/>
+      <c r="F60" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J60"/>
-      <c r="K60" s="1">
+      <c r="K60"/>
+      <c r="L60" s="1">
         <v>35</v>
       </c>
-      <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="1" t="s">
+      <c r="N60"/>
+      <c r="O60" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q60"/>
       <c r="R60"/>
-      <c r="S60" s="1" t="s">
+      <c r="S60"/>
+      <c r="T60" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T60"/>
-      <c r="X60" s="1" t="s">
+      <c r="U60"/>
+      <c r="Y60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="Y60"/>
       <c r="Z60"/>
-      <c r="AC60"/>
-      <c r="AD60" s="1" t="s">
+      <c r="AA60"/>
+      <c r="AD60"/>
+      <c r="AE60" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE60" s="1">
+      <c r="AF60" s="1">
         <v>0.06</v>
       </c>
-      <c r="AH60"/>
       <c r="AI60"/>
-      <c r="AJ60" s="1">
+      <c r="AJ60"/>
+      <c r="AK60" s="1">
         <v>2</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AL60" s="1">
         <v>62</v>
       </c>
-      <c r="AL60"/>
-      <c r="AM60" s="1">
+      <c r="AM60"/>
+      <c r="AN60" s="1">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>73</v>
       </c>
@@ -7422,46 +7492,45 @@
         <v>40</v>
       </c>
       <c r="E61"/>
-      <c r="F61"/>
+      <c r="F61" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
-      <c r="Q61"/>
+      <c r="P61"/>
       <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
-      <c r="X61"/>
+      <c r="U61"/>
       <c r="Y61"/>
       <c r="Z61"/>
-      <c r="AC61"/>
+      <c r="AA61"/>
       <c r="AD61"/>
       <c r="AE61"/>
-      <c r="AH61"/>
+      <c r="AF61"/>
       <c r="AI61"/>
-      <c r="AJ61" s="1">
+      <c r="AJ61"/>
+      <c r="AK61" s="1">
         <v>1</v>
       </c>
-      <c r="AK61" s="1">
+      <c r="AL61" s="1">
         <v>301</v>
       </c>
-      <c r="AL61" s="3" t="s">
+      <c r="AM61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AM61"/>
-    </row>
-    <row r="62" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN61"/>
+    </row>
+    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>74</v>
       </c>
@@ -7475,48 +7544,47 @@
         <v>40</v>
       </c>
       <c r="E62"/>
-      <c r="F62"/>
+      <c r="F62" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
-      <c r="Q62"/>
+      <c r="P62"/>
       <c r="R62"/>
       <c r="S62"/>
       <c r="T62"/>
-      <c r="X62"/>
+      <c r="U62"/>
       <c r="Y62"/>
       <c r="Z62"/>
-      <c r="AC62"/>
+      <c r="AA62"/>
       <c r="AD62"/>
       <c r="AE62"/>
-      <c r="AH62"/>
+      <c r="AF62"/>
       <c r="AI62"/>
-      <c r="AJ62" s="1">
+      <c r="AJ62"/>
+      <c r="AK62" s="1">
         <v>1</v>
       </c>
-      <c r="AK62" s="1">
+      <c r="AL62" s="1">
         <v>302</v>
       </c>
-      <c r="AL62" s="1">
+      <c r="AM62" s="1">
         <v>63</v>
       </c>
-      <c r="AM62" s="1">
+      <c r="AN62" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>75</v>
       </c>
@@ -7532,58 +7600,58 @@
       <c r="E63" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F63"/>
+      <c r="F63" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="G63" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H63" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="J63"/>
-      <c r="K63" s="1">
+      <c r="J63" s="5"/>
+      <c r="K63"/>
+      <c r="L63" s="1">
         <v>2</v>
       </c>
-      <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
-      <c r="Q63"/>
-      <c r="R63" s="1" t="s">
+      <c r="P63"/>
+      <c r="R63"/>
+      <c r="S63" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S63"/>
       <c r="T63"/>
-      <c r="X63" s="1" t="s">
+      <c r="U63"/>
+      <c r="Y63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Y63"/>
       <c r="Z63"/>
-      <c r="AC63"/>
-      <c r="AD63" s="1" t="s">
+      <c r="AA63"/>
+      <c r="AD63"/>
+      <c r="AE63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE63" s="1">
+      <c r="AF63" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH63"/>
       <c r="AI63"/>
-      <c r="AJ63" s="1">
+      <c r="AJ63"/>
+      <c r="AK63" s="1">
         <v>2</v>
       </c>
-      <c r="AK63" s="1">
+      <c r="AL63" s="1">
         <v>63</v>
       </c>
-      <c r="AL63" s="3" t="s">
+      <c r="AM63" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AM63" s="1">
+      <c r="AN63" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>76</v>
       </c>
@@ -7599,60 +7667,59 @@
       <c r="E64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F64"/>
+      <c r="F64" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J64"/>
-      <c r="K64" s="1">
+      <c r="K64"/>
+      <c r="L64" s="1">
         <v>12</v>
       </c>
-      <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="1" t="s">
+      <c r="N64"/>
+      <c r="O64" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q64"/>
-      <c r="R64" s="1" t="s">
+      <c r="R64"/>
+      <c r="S64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="T64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T64"/>
-      <c r="X64" s="1" t="s">
+      <c r="U64"/>
+      <c r="Y64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Y64"/>
       <c r="Z64"/>
-      <c r="AC64"/>
-      <c r="AD64" s="1" t="s">
+      <c r="AA64"/>
+      <c r="AD64"/>
+      <c r="AE64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE64"/>
-      <c r="AH64"/>
+      <c r="AF64"/>
       <c r="AI64"/>
-      <c r="AJ64" s="1">
+      <c r="AJ64"/>
+      <c r="AK64" s="1">
         <v>3</v>
       </c>
-      <c r="AK64" s="1">
+      <c r="AL64" s="1">
         <v>64</v>
       </c>
-      <c r="AL64"/>
-      <c r="AM64" s="1">
+      <c r="AM64"/>
+      <c r="AN64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>77</v>
       </c>
@@ -7674,52 +7741,49 @@
       <c r="G65" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65" s="1">
+      <c r="K65"/>
+      <c r="L65" s="1">
         <v>1</v>
       </c>
-      <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
-      <c r="Q65"/>
-      <c r="R65" s="1" t="s">
+      <c r="P65"/>
+      <c r="R65"/>
+      <c r="S65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S65"/>
       <c r="T65"/>
-      <c r="X65" s="1" t="s">
+      <c r="U65"/>
+      <c r="Y65" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Y65"/>
       <c r="Z65"/>
-      <c r="AC65"/>
-      <c r="AD65" s="1" t="s">
+      <c r="AA65"/>
+      <c r="AD65"/>
+      <c r="AE65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE65"/>
-      <c r="AH65"/>
+      <c r="AF65"/>
       <c r="AI65"/>
-      <c r="AJ65" s="1">
+      <c r="AJ65"/>
+      <c r="AK65" s="1">
         <v>3</v>
       </c>
-      <c r="AK65" s="1">
+      <c r="AL65" s="1">
         <v>65</v>
       </c>
-      <c r="AL65" s="3">
+      <c r="AM65" s="3">
         <v>66</v>
       </c>
-      <c r="AM65" s="1">
+      <c r="AN65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>78</v>
       </c>
@@ -7735,59 +7799,59 @@
       <c r="E66" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F66" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>243</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="1" t="s">
+      <c r="N66"/>
+      <c r="O66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="P66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q66"/>
-      <c r="R66" s="1" t="s">
+      <c r="R66"/>
+      <c r="S66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T66"/>
-      <c r="X66" s="1" t="s">
+      <c r="U66"/>
+      <c r="Y66" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Y66"/>
       <c r="Z66"/>
-      <c r="AC66"/>
-      <c r="AD66" s="1" t="s">
+      <c r="AA66"/>
+      <c r="AD66"/>
+      <c r="AE66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE66"/>
-      <c r="AH66"/>
-      <c r="AI66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ66" s="1">
+      <c r="AF66"/>
+      <c r="AI66"/>
+      <c r="AJ66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK66" s="1">
         <v>4</v>
       </c>
-      <c r="AK66" s="1">
+      <c r="AL66" s="1">
         <v>66</v>
       </c>
-      <c r="AL66"/>
-      <c r="AM66" s="1">
+      <c r="AM66"/>
+      <c r="AN66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>80</v>
       </c>
@@ -7801,47 +7865,47 @@
         <v>40</v>
       </c>
       <c r="E67"/>
+      <c r="F67" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>247</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
-      <c r="Q67"/>
+      <c r="P67"/>
       <c r="R67"/>
       <c r="S67"/>
       <c r="T67"/>
-      <c r="X67"/>
+      <c r="U67"/>
       <c r="Y67"/>
       <c r="Z67"/>
-      <c r="AC67"/>
+      <c r="AA67"/>
       <c r="AD67"/>
       <c r="AE67"/>
-      <c r="AH67"/>
+      <c r="AF67"/>
       <c r="AI67"/>
-      <c r="AJ67" s="1">
+      <c r="AJ67"/>
+      <c r="AK67" s="1">
         <v>1</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AL67" s="1">
         <v>303</v>
       </c>
-      <c r="AL67" s="1">
+      <c r="AM67" s="1">
         <v>69</v>
       </c>
-      <c r="AM67" s="1">
+      <c r="AN67" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>81</v>
       </c>
@@ -7857,57 +7921,58 @@
       <c r="E68" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I68" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="J68"/>
-      <c r="K68" s="1">
+      <c r="J68" s="5"/>
+      <c r="K68"/>
+      <c r="L68" s="1">
         <v>2</v>
       </c>
-      <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
-      <c r="Q68"/>
-      <c r="R68" s="1" t="s">
+      <c r="P68"/>
+      <c r="R68"/>
+      <c r="S68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S68"/>
       <c r="T68"/>
-      <c r="X68" s="1" t="s">
+      <c r="U68"/>
+      <c r="Y68" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AD68"/>
+      <c r="AE68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>69</v>
+      </c>
+      <c r="AM68" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AC68"/>
-      <c r="AD68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK68" s="1">
-        <v>69</v>
-      </c>
-      <c r="AL68" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM68" s="1">
+      <c r="AN68" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>82</v>
       </c>
@@ -7923,59 +7988,59 @@
       <c r="E69" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>253</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J69"/>
-      <c r="K69" s="1">
+      <c r="K69"/>
+      <c r="L69" s="1">
         <v>12</v>
       </c>
-      <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="1" t="s">
+      <c r="N69"/>
+      <c r="O69" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q69"/>
-      <c r="R69" s="1" t="s">
+      <c r="R69"/>
+      <c r="S69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T69"/>
-      <c r="X69" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y69"/>
+      <c r="U69"/>
+      <c r="Y69" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="Z69"/>
-      <c r="AC69"/>
-      <c r="AD69" s="1" t="s">
+      <c r="AA69"/>
+      <c r="AD69"/>
+      <c r="AE69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE69"/>
-      <c r="AH69"/>
+      <c r="AF69"/>
       <c r="AI69"/>
-      <c r="AJ69" s="1">
+      <c r="AJ69"/>
+      <c r="AK69" s="1">
         <v>3</v>
       </c>
-      <c r="AK69" s="1">
+      <c r="AL69" s="1">
         <v>70</v>
       </c>
-      <c r="AL69"/>
-      <c r="AM69" s="1">
+      <c r="AM69"/>
+      <c r="AN69" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>83</v>
       </c>
@@ -7991,55 +8056,55 @@
       <c r="E70" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F70" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>255</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70" s="1">
+        <v>241</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70" s="1">
         <v>1</v>
       </c>
-      <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
-      <c r="Q70"/>
-      <c r="R70" s="1" t="s">
+      <c r="P70"/>
+      <c r="R70"/>
+      <c r="S70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S70"/>
       <c r="T70"/>
-      <c r="X70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y70"/>
+      <c r="U70"/>
+      <c r="Y70" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="Z70"/>
-      <c r="AC70"/>
-      <c r="AD70" s="1" t="s">
+      <c r="AA70"/>
+      <c r="AD70"/>
+      <c r="AE70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE70"/>
-      <c r="AH70"/>
+      <c r="AF70"/>
       <c r="AI70"/>
-      <c r="AJ70" s="1">
+      <c r="AJ70"/>
+      <c r="AK70" s="1">
         <v>3</v>
       </c>
-      <c r="AK70" s="1">
+      <c r="AL70" s="1">
         <v>71</v>
       </c>
-      <c r="AL70" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM70" s="1">
+      <c r="AM70" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>84</v>
       </c>
@@ -8055,59 +8120,59 @@
       <c r="E71" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>258</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J71"/>
+        <v>244</v>
+      </c>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="1" t="s">
+      <c r="N71"/>
+      <c r="O71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>4607042434877</v>
       </c>
-      <c r="Q71"/>
-      <c r="R71" s="1" t="s">
+      <c r="R71"/>
+      <c r="S71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T71"/>
-      <c r="X71" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y71"/>
+      <c r="U71"/>
+      <c r="Y71" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="Z71"/>
-      <c r="AC71"/>
-      <c r="AD71" s="1" t="s">
+      <c r="AA71"/>
+      <c r="AD71"/>
+      <c r="AE71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE71"/>
-      <c r="AH71"/>
-      <c r="AI71" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ71" s="1">
+      <c r="AF71"/>
+      <c r="AI71"/>
+      <c r="AJ71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK71" s="1">
         <v>4</v>
       </c>
-      <c r="AK71" s="1">
+      <c r="AL71" s="1">
         <v>72</v>
       </c>
-      <c r="AL71"/>
-      <c r="AM71" s="1">
+      <c r="AM71"/>
+      <c r="AN71" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>85</v>
       </c>
@@ -8123,59 +8188,59 @@
       <c r="E72" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>261</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J72"/>
+        <v>244</v>
+      </c>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="1" t="s">
+      <c r="N72"/>
+      <c r="O72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>4607042434891</v>
       </c>
-      <c r="Q72"/>
-      <c r="R72" s="1" t="s">
+      <c r="R72"/>
+      <c r="S72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S72" s="1" t="s">
+      <c r="T72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T72"/>
-      <c r="X72" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y72"/>
+      <c r="U72"/>
+      <c r="Y72" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="Z72"/>
-      <c r="AC72"/>
-      <c r="AD72" s="1" t="s">
+      <c r="AA72"/>
+      <c r="AD72"/>
+      <c r="AE72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE72"/>
-      <c r="AH72"/>
-      <c r="AI72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ72" s="1">
+      <c r="AF72"/>
+      <c r="AI72"/>
+      <c r="AJ72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK72" s="1">
         <v>4</v>
       </c>
-      <c r="AK72" s="1">
+      <c r="AL72" s="1">
         <v>73</v>
       </c>
-      <c r="AL72"/>
-      <c r="AM72" s="1">
+      <c r="AM72"/>
+      <c r="AN72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>86</v>
       </c>
@@ -8186,60 +8251,61 @@
         <v>39</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>265</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="I73" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73" s="1">
+      <c r="J73" s="7"/>
+      <c r="K73"/>
+      <c r="L73" s="1">
         <v>4</v>
       </c>
-      <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
-      <c r="Q73"/>
-      <c r="R73" s="1" t="s">
+      <c r="P73"/>
+      <c r="R73"/>
+      <c r="S73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S73"/>
       <c r="T73"/>
-      <c r="X73"/>
+      <c r="U73"/>
       <c r="Y73"/>
       <c r="Z73"/>
-      <c r="AC73"/>
-      <c r="AD73" s="1" t="s">
+      <c r="AA73"/>
+      <c r="AD73"/>
+      <c r="AE73" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE73" s="1">
+      <c r="AF73" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH73"/>
       <c r="AI73"/>
-      <c r="AJ73" s="1">
+      <c r="AJ73"/>
+      <c r="AK73" s="1">
         <v>2</v>
       </c>
-      <c r="AK73" s="1">
+      <c r="AL73" s="1">
         <v>74</v>
       </c>
-      <c r="AL73" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM73" s="1">
+      <c r="AM73" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN73" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>87</v>
       </c>
@@ -8251,61 +8317,61 @@
       </c>
       <c r="D74"/>
       <c r="E74"/>
+      <c r="F74" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>270</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J74"/>
-      <c r="K74" s="1">
+      <c r="K74"/>
+      <c r="L74" s="1">
         <v>3</v>
       </c>
-      <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" s="1" t="s">
+      <c r="O74"/>
+      <c r="P74" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T74" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S74" s="1" t="s">
+      <c r="U74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="T74" s="1" t="s">
+      <c r="Y74"/>
+      <c r="Z74" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="X74"/>
-      <c r="Y74" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z74"/>
-      <c r="AC74"/>
-      <c r="AD74" s="1" t="s">
+      <c r="AA74"/>
+      <c r="AD74"/>
+      <c r="AE74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE74"/>
-      <c r="AH74"/>
+      <c r="AF74"/>
       <c r="AI74"/>
-      <c r="AJ74" s="1">
+      <c r="AJ74"/>
+      <c r="AK74" s="1">
         <v>3</v>
       </c>
-      <c r="AK74" s="1">
+      <c r="AL74" s="1">
         <v>75</v>
       </c>
-      <c r="AL74"/>
-      <c r="AM74" s="1">
+      <c r="AM74"/>
+      <c r="AN74" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>88</v>
       </c>
@@ -8317,56 +8383,56 @@
       </c>
       <c r="D75"/>
       <c r="E75"/>
+      <c r="F75" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>276</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J75"/>
-      <c r="K75" s="1">
+      <c r="K75"/>
+      <c r="L75" s="1">
         <v>1</v>
       </c>
-      <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
-      <c r="Q75"/>
+      <c r="P75"/>
       <c r="R75"/>
-      <c r="S75" s="1" t="s">
+      <c r="S75"/>
+      <c r="T75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y75"/>
+      <c r="Z75" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="X75"/>
-      <c r="Y75" s="1" t="s">
+      <c r="AA75"/>
+      <c r="AD75"/>
+      <c r="AE75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF75"/>
+      <c r="AI75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ75" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="Z75"/>
-      <c r="AC75"/>
-      <c r="AD75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE75"/>
-      <c r="AH75" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI75" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ75" s="1">
+      <c r="AK75" s="1">
         <v>3</v>
       </c>
-      <c r="AK75" s="1">
+      <c r="AL75" s="1">
         <v>76</v>
       </c>
-      <c r="AL75"/>
-      <c r="AM75" s="1">
+      <c r="AM75"/>
+      <c r="AN75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>89</v>
       </c>
@@ -8378,58 +8444,58 @@
       </c>
       <c r="D76"/>
       <c r="E76"/>
+      <c r="F76" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>282</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76" s="1">
+        <v>4</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76" s="1">
-        <v>4</v>
-      </c>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="R76"/>
+      <c r="S76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y76"/>
+      <c r="Z76" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Q76"/>
-      <c r="R76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X76"/>
-      <c r="Y76" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z76"/>
-      <c r="AC76"/>
-      <c r="AD76" s="1" t="s">
+      <c r="AA76"/>
+      <c r="AD76"/>
+      <c r="AE76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE76"/>
-      <c r="AH76"/>
+      <c r="AF76"/>
       <c r="AI76"/>
-      <c r="AJ76" s="1">
+      <c r="AJ76"/>
+      <c r="AK76" s="1">
         <v>3</v>
       </c>
-      <c r="AK76" s="1">
+      <c r="AL76" s="1">
         <v>77</v>
       </c>
-      <c r="AL76"/>
-      <c r="AM76" s="1">
+      <c r="AM76"/>
+      <c r="AN76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>90</v>
       </c>
@@ -8441,56 +8507,56 @@
       </c>
       <c r="D77"/>
       <c r="E77"/>
+      <c r="F77" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>287</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77" s="1">
+        <v>277</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77" s="1">
         <v>1</v>
       </c>
-      <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-      <c r="Q77"/>
+      <c r="P77"/>
       <c r="R77"/>
-      <c r="S77" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="X77"/>
-      <c r="Y77" s="1" t="s">
+      <c r="S77"/>
+      <c r="T77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA77"/>
+      <c r="AD77"/>
+      <c r="AE77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF77"/>
+      <c r="AI77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Z77"/>
-      <c r="AC77"/>
-      <c r="AD77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE77"/>
-      <c r="AH77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI77" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ77" s="1">
+      <c r="AK77" s="1">
         <v>3</v>
       </c>
-      <c r="AK77" s="1">
+      <c r="AL77" s="1">
         <v>78</v>
       </c>
-      <c r="AL77"/>
-      <c r="AM77" s="1">
+      <c r="AM77"/>
+      <c r="AN77" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>91</v>
       </c>
@@ -8504,44 +8570,44 @@
         <v>40</v>
       </c>
       <c r="E78"/>
+      <c r="F78" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>291</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="Q78"/>
+      <c r="P78"/>
       <c r="R78"/>
       <c r="S78"/>
-      <c r="X78"/>
+      <c r="T78"/>
       <c r="Y78"/>
       <c r="Z78"/>
-      <c r="AC78"/>
+      <c r="AA78"/>
       <c r="AD78"/>
       <c r="AE78"/>
-      <c r="AH78"/>
+      <c r="AF78"/>
       <c r="AI78"/>
-      <c r="AJ78" s="1">
+      <c r="AJ78"/>
+      <c r="AK78" s="1">
         <v>1</v>
       </c>
-      <c r="AK78" s="1">
+      <c r="AL78" s="1">
         <v>310</v>
       </c>
-      <c r="AL78" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM78"/>
-    </row>
-    <row r="79" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM78" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN78"/>
+    </row>
+    <row r="79" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>92</v>
       </c>
@@ -8555,46 +8621,46 @@
         <v>40</v>
       </c>
       <c r="E79"/>
+      <c r="F79" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>294</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I79" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
-      <c r="Q79"/>
+      <c r="P79"/>
       <c r="R79"/>
       <c r="S79"/>
-      <c r="X79"/>
+      <c r="T79"/>
       <c r="Y79"/>
       <c r="Z79"/>
-      <c r="AC79"/>
+      <c r="AA79"/>
       <c r="AD79"/>
       <c r="AE79"/>
-      <c r="AH79"/>
+      <c r="AF79"/>
       <c r="AI79"/>
-      <c r="AJ79" s="1">
+      <c r="AJ79"/>
+      <c r="AK79" s="1">
         <v>1</v>
       </c>
-      <c r="AK79" s="1">
+      <c r="AL79" s="1">
         <v>311</v>
       </c>
-      <c r="AL79" s="1">
+      <c r="AM79" s="1">
         <v>79</v>
       </c>
-      <c r="AM79" s="1">
+      <c r="AN79" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>93</v>
       </c>
@@ -8608,6 +8674,9 @@
         <v>40</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>296</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -8616,48 +8685,45 @@
       <c r="H80" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="Q80"/>
-      <c r="R80" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="S80"/>
-      <c r="X80"/>
+      <c r="P80"/>
+      <c r="R80"/>
+      <c r="S80" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T80"/>
       <c r="Y80"/>
       <c r="Z80"/>
-      <c r="AC80"/>
-      <c r="AD80" s="1" t="s">
+      <c r="AA80"/>
+      <c r="AD80"/>
+      <c r="AE80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE80" s="1">
+      <c r="AF80" s="1">
         <v>0.18</v>
       </c>
-      <c r="AH80"/>
-      <c r="AI80" s="1" t="s">
+      <c r="AI80"/>
+      <c r="AJ80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM80" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AJ80" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK80" s="1">
-        <v>79</v>
-      </c>
-      <c r="AL80" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM80" s="1">
+      <c r="AN80" s="1">
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>94</v>
       </c>
@@ -8671,7 +8737,10 @@
         <v>40</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>303</v>
@@ -8679,56 +8748,53 @@
       <c r="H81" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="K81"/>
+      <c r="L81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="1">
+        <v>30</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J81"/>
-      <c r="K81" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="1">
-        <v>30</v>
-      </c>
-      <c r="M81"/>
-      <c r="N81" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81" s="1" t="s">
+      <c r="Y81" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="X81" s="1" t="s">
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AD81"/>
+      <c r="AE81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF81"/>
+      <c r="AI81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AC81"/>
-      <c r="AD81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE81"/>
-      <c r="AH81" s="1" t="s">
+      <c r="AJ81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AI81" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ81" s="1">
+      <c r="AK81" s="1">
         <v>3</v>
       </c>
-      <c r="AK81" s="1">
+      <c r="AL81" s="1">
         <v>80</v>
       </c>
-      <c r="AL81"/>
-      <c r="AM81" s="1">
+      <c r="AM81"/>
+      <c r="AN81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>96</v>
       </c>
@@ -8742,7 +8808,10 @@
         <v>40</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>312</v>
@@ -8750,50 +8819,47 @@
       <c r="H82" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="K82"/>
+      <c r="L82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y82" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J82"/>
-      <c r="K82" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y82"/>
       <c r="Z82"/>
-      <c r="AC82"/>
-      <c r="AD82" s="1" t="s">
+      <c r="AA82"/>
+      <c r="AD82"/>
+      <c r="AE82" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE82"/>
-      <c r="AH82"/>
+      <c r="AF82"/>
       <c r="AI82"/>
-      <c r="AJ82" s="1">
+      <c r="AJ82"/>
+      <c r="AK82" s="1">
         <v>3</v>
       </c>
-      <c r="AK82" s="1">
+      <c r="AL82" s="1">
         <v>82</v>
       </c>
-      <c r="AL82"/>
-      <c r="AM82" s="1">
+      <c r="AM82"/>
+      <c r="AN82" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>97</v>
       </c>
@@ -8807,46 +8873,46 @@
         <v>40</v>
       </c>
       <c r="E83"/>
+      <c r="F83" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>316</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
-      <c r="Q83"/>
+      <c r="P83"/>
       <c r="R83"/>
       <c r="S83"/>
-      <c r="X83"/>
+      <c r="T83"/>
       <c r="Y83"/>
       <c r="Z83"/>
-      <c r="AC83"/>
+      <c r="AA83"/>
       <c r="AD83"/>
       <c r="AE83"/>
-      <c r="AH83"/>
+      <c r="AF83"/>
       <c r="AI83"/>
-      <c r="AJ83" s="1">
+      <c r="AJ83"/>
+      <c r="AK83" s="1">
         <v>1</v>
       </c>
-      <c r="AK83" s="1">
+      <c r="AL83" s="1">
         <v>312</v>
       </c>
-      <c r="AL83" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM83" s="1">
+      <c r="AM83" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN83" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>98</v>
       </c>
@@ -8860,64 +8926,64 @@
         <v>40</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>319</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84" s="1">
+        <v>277</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84" s="1">
         <v>1</v>
       </c>
-      <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
-      <c r="O84" s="1" t="s">
+      <c r="O84"/>
+      <c r="P84" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y84" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="X84" s="1" t="s">
+      <c r="Z84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA84"/>
+      <c r="AD84"/>
+      <c r="AE84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AI84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ84" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Y84" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z84"/>
-      <c r="AC84"/>
-      <c r="AD84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE84" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AH84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI84" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ84" s="1">
+      <c r="AK84" s="1">
         <v>2</v>
       </c>
-      <c r="AK84" s="1">
+      <c r="AL84" s="1">
         <v>83</v>
       </c>
-      <c r="AL84"/>
-      <c r="AM84" s="1">
+      <c r="AM84"/>
+      <c r="AN84" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>99</v>
       </c>
@@ -8931,7 +8997,10 @@
         <v>40</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>324</v>
@@ -8939,57 +9008,54 @@
       <c r="H85" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J85"/>
       <c r="K85"/>
-      <c r="L85" s="1">
+      <c r="L85"/>
+      <c r="M85" s="1">
         <v>1</v>
       </c>
-      <c r="M85" s="1">
+      <c r="N85" s="1">
         <v>15</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="O85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85" s="1" t="s">
+      <c r="Y85" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="X85" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y85"/>
-      <c r="AC85"/>
-      <c r="AD85" s="1" t="s">
+      <c r="Z85"/>
+      <c r="AD85"/>
+      <c r="AE85" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE85" s="1">
+      <c r="AF85" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH85" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="AI85" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ85" s="1">
+        <v>302</v>
+      </c>
+      <c r="AJ85" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK85" s="1">
         <v>2</v>
       </c>
-      <c r="AK85" s="1">
+      <c r="AL85" s="1">
         <v>84</v>
       </c>
-      <c r="AL85"/>
-      <c r="AM85" s="1">
+      <c r="AM85"/>
+      <c r="AN85" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>100</v>
       </c>
@@ -9003,57 +9069,57 @@
         <v>40</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>327</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="R86"/>
+      <c r="S86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T86"/>
+      <c r="Y86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z86"/>
+      <c r="AD86"/>
+      <c r="AE86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ86" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>85</v>
+      </c>
+      <c r="AM86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="Q86"/>
-      <c r="R86" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S86"/>
-      <c r="X86" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y86"/>
-      <c r="AC86"/>
-      <c r="AD86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE86" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AH86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI86" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ86" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK86" s="1">
-        <v>85</v>
-      </c>
-      <c r="AL86" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM86" s="1">
+      <c r="AN86" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>101</v>
       </c>
@@ -9067,63 +9133,63 @@
         <v>40</v>
       </c>
       <c r="E87"/>
+      <c r="F87" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>330</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="K87"/>
+      <c r="L87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J87"/>
-      <c r="K87" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="R87" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q87" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y87" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC87"/>
-      <c r="AD87" s="1" t="s">
+      <c r="AD87"/>
+      <c r="AE87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE87"/>
-      <c r="AH87" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="AF87"/>
       <c r="AI87" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ87" s="1">
+        <v>302</v>
+      </c>
+      <c r="AJ87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK87" s="1">
         <v>3</v>
       </c>
-      <c r="AK87" s="1">
+      <c r="AL87" s="1">
         <v>86</v>
       </c>
-      <c r="AL87"/>
-      <c r="AM87" s="1">
+      <c r="AM87"/>
+      <c r="AN87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>102</v>
       </c>
@@ -9137,55 +9203,55 @@
         <v>40</v>
       </c>
       <c r="E88"/>
+      <c r="F88" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>336</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88" s="1">
+        <v>2</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="R88"/>
+      <c r="S88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T88"/>
+      <c r="Y88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z88"/>
+      <c r="AD88"/>
+      <c r="AE88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF88"/>
+      <c r="AI88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ88" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>88</v>
+      </c>
+      <c r="AM88" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88" s="1">
-        <v>2</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="Q88"/>
-      <c r="R88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S88"/>
-      <c r="X88" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y88"/>
-      <c r="AC88"/>
-      <c r="AD88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE88"/>
-      <c r="AH88" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI88" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ88" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK88" s="1">
-        <v>88</v>
-      </c>
-      <c r="AL88" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AM88" s="1">
+      <c r="AN88" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>103</v>
       </c>
@@ -9199,65 +9265,65 @@
         <v>40</v>
       </c>
       <c r="E89"/>
+      <c r="F89" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>339</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89" s="1">
+        <v>4</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89" s="1">
+      <c r="P89" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF89"/>
+      <c r="AI89" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK89" s="1">
         <v>4</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC89" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE89"/>
-      <c r="AH89" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI89" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ89" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK89" s="1">
+      <c r="AL89" s="1">
         <v>89</v>
       </c>
-      <c r="AL89"/>
-      <c r="AM89" s="1">
+      <c r="AM89"/>
+      <c r="AN89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>104</v>
       </c>
@@ -9271,65 +9337,65 @@
         <v>40</v>
       </c>
       <c r="E90"/>
+      <c r="F90" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>345</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I90" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J90"/>
-      <c r="K90" s="1">
+      <c r="K90"/>
+      <c r="L90" s="1">
         <v>4</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="O90" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O90" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="R90" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S90" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S90" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y90" s="3" t="s">
+      <c r="T90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z90" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD90" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AC90" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD90" s="1" t="s">
+      <c r="AE90" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE90"/>
-      <c r="AH90" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="AF90"/>
       <c r="AI90" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ90" s="1">
+        <v>302</v>
+      </c>
+      <c r="AJ90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK90" s="1">
         <v>4</v>
       </c>
-      <c r="AK90" s="1">
+      <c r="AL90" s="1">
         <v>90</v>
       </c>
-      <c r="AL90"/>
-      <c r="AM90" s="1">
+      <c r="AM90"/>
+      <c r="AN90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>105</v>
       </c>
@@ -9343,59 +9409,59 @@
         <v>40</v>
       </c>
       <c r="E91"/>
+      <c r="F91" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91" s="1">
+      <c r="K91"/>
+      <c r="L91" s="1">
         <v>2</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="P91" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T91" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S91" s="1" t="s">
+      <c r="Y91" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="X91" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD91" s="1" t="s">
+      <c r="Z91" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE91" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE91"/>
-      <c r="AH91" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="AF91"/>
       <c r="AI91" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ91" s="1">
+        <v>302</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK91" s="1">
         <v>3</v>
       </c>
-      <c r="AK91" s="1">
+      <c r="AL91" s="1">
         <v>91</v>
       </c>
-      <c r="AL91"/>
-      <c r="AM91" s="1">
+      <c r="AM91"/>
+      <c r="AN91" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>106</v>
       </c>
@@ -9409,7 +9475,10 @@
         <v>40</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>350</v>
@@ -9417,45 +9486,42 @@
       <c r="H92" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J92"/>
-      <c r="N92"/>
-      <c r="O92" s="1" t="s">
+      <c r="K92"/>
+      <c r="O92"/>
+      <c r="P92" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T92" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S92" s="1" t="s">
+      <c r="Y92" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="X92" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y92"/>
-      <c r="AD92" s="1" t="s">
+      <c r="Z92"/>
+      <c r="AE92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE92" s="1">
+      <c r="AF92" s="1">
         <v>0.03</v>
       </c>
-      <c r="AH92" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="AI92" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ92" s="1">
+        <v>302</v>
+      </c>
+      <c r="AJ92" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK92" s="1">
         <v>2</v>
       </c>
-      <c r="AK92" s="1">
+      <c r="AL92" s="1">
         <v>92</v>
       </c>
-      <c r="AL92"/>
-      <c r="AM92" s="1">
+      <c r="AM92"/>
+      <c r="AN92" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>107</v>
       </c>
@@ -9466,9 +9532,12 @@
         <v>39</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>354</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -9477,27 +9546,24 @@
       <c r="H93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="T93" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="S93" s="1" t="s">
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AL93" s="1">
+        <v>93</v>
+      </c>
+      <c r="AM93" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="AK93" s="1">
-        <v>93</v>
-      </c>
-      <c r="AL93" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>108</v>
       </c>
@@ -9508,9 +9574,12 @@
         <v>39</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -9519,31 +9588,28 @@
       <c r="H94" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="P94" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X94"/>
+      <c r="T94" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="Y94"/>
-      <c r="AK94" s="1">
+      <c r="Z94"/>
+      <c r="AL94" s="1">
         <v>94</v>
       </c>
-      <c r="AL94" s="1">
+      <c r="AM94" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>109</v>
       </c>
@@ -9554,9 +9620,12 @@
         <v>39</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -9565,31 +9634,28 @@
       <c r="H95" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X95"/>
+      <c r="P95" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="Y95"/>
-      <c r="AK95" s="1">
+      <c r="Z95"/>
+      <c r="AL95" s="1">
         <v>95</v>
       </c>
-      <c r="AL95" s="1">
+      <c r="AM95" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>110</v>
       </c>
@@ -9600,9 +9666,12 @@
         <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -9611,31 +9680,28 @@
       <c r="H96" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X96"/>
+      <c r="P96" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="Y96"/>
-      <c r="AK96" s="1">
+      <c r="Z96"/>
+      <c r="AL96" s="1">
         <v>96</v>
       </c>
-      <c r="AL96" s="1">
+      <c r="AM96" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -9646,9 +9712,12 @@
         <v>39</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -9657,31 +9726,28 @@
       <c r="H97" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="X97"/>
+      <c r="P97" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="Y97"/>
-      <c r="AK97" s="1">
+      <c r="Z97"/>
+      <c r="AL97" s="1">
         <v>97</v>
       </c>
-      <c r="AL97" s="1">
+      <c r="AM97" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>112</v>
       </c>
@@ -9692,9 +9758,12 @@
         <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>371</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -9703,31 +9772,28 @@
       <c r="H98" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="K98" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="S98" s="1" t="s">
+      <c r="Y98" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z98" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="X98" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y98" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK98" s="1">
+      <c r="AL98" s="1">
         <v>98</v>
       </c>
-      <c r="AL98"/>
-    </row>
-    <row r="99" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM98"/>
+    </row>
+    <row r="99" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>113</v>
       </c>
@@ -9738,9 +9804,12 @@
         <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -9749,28 +9818,25 @@
       <c r="H99" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="K99" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O99"/>
+      <c r="P99" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99" s="1" t="s">
+      <c r="T99" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z99" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="S99" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y99" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK99" s="1">
+      <c r="AL99" s="1">
         <v>99</v>
       </c>
-      <c r="AL99"/>
-    </row>
-    <row r="100" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM99"/>
+    </row>
+    <row r="100" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>114</v>
       </c>
@@ -9781,39 +9847,39 @@
         <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>384</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK100" s="1">
+      <c r="T100" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL100" s="1">
         <v>101</v>
       </c>
-      <c r="AL100"/>
-    </row>
-    <row r="101" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM100"/>
+    </row>
+    <row r="101" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>115</v>
       </c>
@@ -9824,40 +9890,40 @@
         <v>39</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>388</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>389</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O101" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N101" s="1" t="s">
+      <c r="P101" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="T101" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL101" s="1">
+        <v>102</v>
+      </c>
+      <c r="AM101" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="S101" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AK101" s="1">
-        <v>102</v>
-      </c>
-      <c r="AL101" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>116</v>
       </c>
@@ -9868,40 +9934,40 @@
         <v>39</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>388</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>389</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O102" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL102" s="1">
+        <v>104</v>
+      </c>
+      <c r="AM102" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="S102" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AK102" s="1">
-        <v>104</v>
-      </c>
-      <c r="AL102" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>117</v>
       </c>
@@ -9912,29 +9978,29 @@
         <v>39</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>396</v>
       </c>
       <c r="H103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AK103" s="1">
+      <c r="T103" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL103" s="1">
         <v>521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - FT - CAP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="403">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Activation, Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
+    <t xml:space="preserve">Panoramic Photo; SS_Panoramic Photo</t>
   </si>
   <si>
     <t xml:space="preserve">BINARY</t>
@@ -368,7 +368,10 @@
     <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000044839</t>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000044839, 5449000280152</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 0.25L Slim</t>
@@ -918,7 +921,7 @@
     <t xml:space="preserve">0.2, 0.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobry 0.2, SS_Dobry 0.2</t>
+    <t xml:space="preserve">Dobry 0.2; SS_Dobry 0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Dobry 0.2 Zone</t>
@@ -933,7 +936,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobry 0.2_Zone, SS_Dobry 0.2_Zone</t>
+    <t xml:space="preserve">Dobry 0.2_Zone; SS_Dobry 0.2_Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Dobry 0.2</t>
@@ -951,7 +954,7 @@
     <t xml:space="preserve">5449000008046, 5449000020987, 5449000239655, 5449000000729, 5449000000712</t>
   </si>
   <si>
-    <t xml:space="preserve">Entry_Pack, SS_Dobry 0.2_Zone</t>
+    <t xml:space="preserve">Entry_Pack; SS_Dobry 0.2_Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Cashier Displays Entry Pack Zone</t>
@@ -960,7 +963,7 @@
     <t xml:space="preserve">Прикассовый дисплеи Entry Pack Зона</t>
   </si>
   <si>
-    <t xml:space="preserve">Entry_PacK_ Zone, SS_Dobry 0.2_Zone</t>
+    <t xml:space="preserve">Entry_PacK_ Zone; SS_Dobry 0.2_Zone</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only if passed KPI Cashier Displays Entry Pack</t>
@@ -1025,7 +1028,7 @@
     <t xml:space="preserve">Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">filled collers target</t>
+    <t xml:space="preserve">filled coolers target</t>
   </si>
   <si>
     <t xml:space="preserve">number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
@@ -1068,7 +1071,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
+    <t xml:space="preserve">Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
@@ -1110,7 +1113,7 @@
     <t xml:space="preserve">Coca-Cola</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD 1 door, SSD 1.5 door, Mixed 1 door, Mixed  1.5 door, SS_SSD 1 door, SS_SSD 1.5 door, SS_Mixed 1 door, SS_Mixed  1.5 door</t>
+    <t xml:space="preserve">SSD 1 door; SSD 1.5 door; Mixed 1 door; Mixed  1.5 door; SS_SSD 1 door; SS_SSD 1.5 door; SS_Mixed 1 door; SS_Mixed  1.5 door</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
@@ -1135,7 +1138,7 @@
     <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD 1 door, NCB 1 door, Mixed 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, SSDFL 1 door, SSDFL 1.5 door, SS_SSD 1 door, SS_NCB 1 door, SS_Mixed 1 door, SS_SSD 1.5 door, SS_NSB  1.5 door, SS_Mixed  1.5 door, SS_SSDFL 1 door, SS_SSDFL 1.5 door</t>
+    <t xml:space="preserve">SSD 1 door; NCB 1 door; Mixed 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; SSDFL 1 door; SSDFL 1.5 door; SS_SSD 1 door; SS_NCB 1 door; SS_Mixed 1 door; SS_SSD 1.5 door; SS_NSB  1.5 door; SS_Mixed  1.5 door; SS_SSDFL 1 door; SS_SSDFL 1.5 door</t>
   </si>
   <si>
     <t xml:space="preserve">2,3</t>
@@ -1244,7 +1247,7 @@
     <t xml:space="preserve">SCENE LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD 1 door, NSB 1 door, Mixed 1 door, FC 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, FC door 1.5 door</t>
+    <t xml:space="preserve">SSD 1 door; NSB 1 door; Mixed 1 door; FC 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; FC door 1.5 door</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute 1</t>
@@ -1262,7 +1265,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer BIG SSD, SSD Cooler-Side Rack Big, SSD Cooler-Side Rack Small, SSD Mini pallet, SSD Neck-hanging Rack, Freezer Small SSD, Other SSD Display BIG, Other SSD Display Small, Juice Cooler-Side Rack, Juice Freezer, Juice Mini Pallet, Other Juice Display BIG, Pulpy Cooler-Side Rack, Pulpy Other, Other Juice Display Small, Bonaqua Display, Fuzetea Display, Energy Display, Promo SSD, Promo Juice, Promo Water, Promo Energy, Promo Fuzetea</t>
+    <t xml:space="preserve">Freezer BIG SSD; SSD Cooler-Side Rack Big; SSD Cooler-Side Rack Small; SSD Mini pallet; SSD Neck-hanging Rack; Freezer Small SSD; Other SSD Display BIG; Other SSD Display Small; Juice Cooler-Side Rack; Juice Freezer; Juice Mini Pallet; Other Juice Display BIG; Pulpy Cooler-Side Rack; Pulpy Other; Other Juice Display Small; Bonaqua Display; Fuzetea Display; Energy Display; Promo SSD; Promo Juice; Promo Water; Promo Energy; Promo Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Scene Sub Type 1</t>
@@ -1375,7 +1378,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,18 +1388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1459,11 +1450,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1471,15 +1470,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1492,66 +1483,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1566,54 +1497,54 @@
   </sheetPr>
   <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="AI82" activeCellId="0" sqref="AI82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5384615384615"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="69.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="98.6072874493927"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="62.7287449392713"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7935222672065"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="33.4777327935223"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="104.777327935223"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.0202429149798"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8785425101215"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.9352226720648"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.1052631578947"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="34.7368421052632"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="37.246963562753"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="38.7327935222672"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="23.1943319838057"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.6234817813765"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="18.9676113360324"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="35.8785425101215"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="123.056680161943"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.085020242915"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.9109311740891"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1738,7 +1669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1751,7 +1682,6 @@
       <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0"/>
       <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1761,37 +1691,20 @@
       <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="0"/>
+      <c r="I2" s="5" t="str">
+        <f aca="false">IF(FIND("Availability",F2)&gt;0,"Availability")</f>
+        <v>Availability</v>
+      </c>
       <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
       <c r="AK2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1825,34 +1738,41 @@
       <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AD3" s="0"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
       <c r="AK3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="AN3" s="1" t="n">
@@ -1884,52 +1804,59 @@
       <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="0"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="0"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
       <c r="S4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="0"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
       <c r="X4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="0"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF4" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
       <c r="AK4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AM4" s="0"/>
+      <c r="AM4" s="4"/>
       <c r="AN4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1959,52 +1886,59 @@
       <c r="H5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="0"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="0"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="0"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
       <c r="X5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="0"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI5" s="0"/>
-      <c r="AJ5" s="0"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
       <c r="AK5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AM5" s="0"/>
+      <c r="AM5" s="4"/>
       <c r="AN5" s="1" t="n">
         <v>1</v>
       </c>
@@ -2034,52 +1968,59 @@
       <c r="H6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="0"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="0"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD6" s="0"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
       <c r="AK6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AM6" s="0"/>
+      <c r="AM6" s="4"/>
       <c r="AN6" s="1" t="n">
         <v>1</v>
       </c>
@@ -2109,52 +2050,59 @@
       <c r="H7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="0"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="0"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="0"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF7" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
       <c r="AK7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AM7" s="0"/>
+      <c r="AM7" s="4"/>
       <c r="AN7" s="1" t="n">
         <v>1</v>
       </c>
@@ -2184,52 +2132,59 @@
       <c r="H8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="0"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="0"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" s="0"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
       <c r="AK8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AM8" s="0"/>
+      <c r="AM8" s="4"/>
       <c r="AN8" s="1" t="n">
         <v>1</v>
       </c>
@@ -2259,52 +2214,59 @@
       <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="0"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="0"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
       <c r="AA9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="0"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
       <c r="AK9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AM9" s="0"/>
+      <c r="AM9" s="4"/>
       <c r="AN9" s="1" t="n">
         <v>1</v>
       </c>
@@ -2334,52 +2296,59 @@
       <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="0"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="0"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" s="0"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
       <c r="AK10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AM10" s="0"/>
+      <c r="AM10" s="4"/>
       <c r="AN10" s="1" t="n">
         <v>1</v>
       </c>
@@ -2409,52 +2378,59 @@
       <c r="H11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="0"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="0"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD11" s="0"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>0.02025</v>
       </c>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
       <c r="AK11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AM11" s="0"/>
+      <c r="AM11" s="4"/>
       <c r="AN11" s="1" t="n">
         <v>1</v>
       </c>
@@ -2484,52 +2460,59 @@
       <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="0"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="0"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
       <c r="X12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="0"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
       <c r="AK12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AM12" s="0"/>
+      <c r="AM12" s="4"/>
       <c r="AN12" s="1" t="n">
         <v>1</v>
       </c>
@@ -2559,52 +2542,59 @@
       <c r="H13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="0"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="0"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
       <c r="X13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="0"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI13" s="0"/>
-      <c r="AJ13" s="0"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
       <c r="AK13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL13" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AM13" s="0"/>
+      <c r="AM13" s="4"/>
       <c r="AN13" s="1" t="n">
         <v>1</v>
       </c>
@@ -2634,52 +2624,59 @@
       <c r="H14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="0"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="0"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="0"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI14" s="0"/>
-      <c r="AJ14" s="0"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
       <c r="AK14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AM14" s="0"/>
+      <c r="AM14" s="4"/>
       <c r="AN14" s="1" t="n">
         <v>1</v>
       </c>
@@ -2709,52 +2706,59 @@
       <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="0"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>42099697</v>
       </c>
-      <c r="R15" s="0"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="0"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF15" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI15" s="0"/>
-      <c r="AJ15" s="0"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
       <c r="AK15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL15" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="AM15" s="0"/>
+      <c r="AM15" s="4"/>
       <c r="AN15" s="1" t="n">
         <v>1</v>
       </c>
@@ -2784,52 +2788,59 @@
       <c r="H16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="0"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R16" s="0"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
       <c r="X16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
       <c r="AA16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="0"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI16" s="0"/>
-      <c r="AJ16" s="0"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
       <c r="AK16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL16" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="AM16" s="0"/>
+      <c r="AM16" s="4"/>
       <c r="AN16" s="1" t="n">
         <v>1</v>
       </c>
@@ -2859,52 +2870,59 @@
       <c r="H17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="0"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R17" s="0"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
       <c r="X17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD17" s="0"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI17" s="0"/>
-      <c r="AJ17" s="0"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
       <c r="AK17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL17" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AM17" s="0"/>
+      <c r="AM17" s="4"/>
       <c r="AN17" s="1" t="n">
         <v>1</v>
       </c>
@@ -2934,52 +2952,59 @@
       <c r="H18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="0"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R18" s="0"/>
+      <c r="P18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
       <c r="X18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD18" s="0"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF18" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI18" s="0"/>
-      <c r="AJ18" s="0"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
       <c r="AK18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AM18" s="0"/>
+      <c r="AM18" s="4"/>
       <c r="AN18" s="1" t="n">
         <v>1</v>
       </c>
@@ -3001,60 +3026,67 @@
         <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="0"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R19" s="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD19" s="0"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF19" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI19" s="0"/>
-      <c r="AJ19" s="0"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
       <c r="AK19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="AM19" s="0"/>
+      <c r="AM19" s="4"/>
       <c r="AN19" s="1" t="n">
         <v>1</v>
       </c>
@@ -3076,60 +3108,67 @@
         <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="0"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>5449000064110</v>
       </c>
-      <c r="R20" s="0"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="0"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD20" s="0"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
       <c r="AE20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF20" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI20" s="0"/>
-      <c r="AJ20" s="0"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
       <c r="AK20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL20" s="1" t="n">
         <v>602</v>
       </c>
-      <c r="AM20" s="0"/>
+      <c r="AM20" s="4"/>
       <c r="AN20" s="1" t="n">
         <v>1</v>
       </c>
@@ -3151,60 +3190,67 @@
         <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="0"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>5449000046390</v>
       </c>
-      <c r="R21" s="0"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="0"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
       <c r="AK21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL21" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AM21" s="0"/>
+      <c r="AM21" s="4"/>
       <c r="AN21" s="1" t="n">
         <v>1</v>
       </c>
@@ -3226,60 +3272,67 @@
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="0"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R22" s="0"/>
+        <v>117</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
       <c r="X22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
       <c r="AA22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="0"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF22" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
       <c r="AK22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL22" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="AM22" s="0"/>
+      <c r="AM22" s="4"/>
       <c r="AN22" s="1" t="n">
         <v>1</v>
       </c>
@@ -3298,13 +3351,13 @@
         <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>49</v>
@@ -3314,37 +3367,44 @@
         <v>Availability</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
-      <c r="AD23" s="0"/>
+        <v>121</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF23" s="0"/>
-      <c r="AI23" s="0"/>
-      <c r="AJ23" s="0"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL23" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AM23" s="4" t="s">
-        <v>121</v>
+      <c r="AM23" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="AN23" s="1" t="n">
         <v>300</v>
@@ -3364,63 +3424,70 @@
         <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="0"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="0"/>
+        <v>125</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
       <c r="X24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
       <c r="AA24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="0"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF24" s="1" t="n">
         <v>0.01535</v>
       </c>
-      <c r="AI24" s="0"/>
-      <c r="AJ24" s="0"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
       <c r="AK24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AM24" s="0"/>
+      <c r="AM24" s="4"/>
       <c r="AN24" s="1" t="n">
         <v>25</v>
       </c>
@@ -3439,63 +3506,70 @@
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="0"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R25" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="0"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="0"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
       <c r="AE25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF25" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI25" s="0"/>
-      <c r="AJ25" s="0"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
       <c r="AK25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL25" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AM25" s="0"/>
+      <c r="AM25" s="4"/>
       <c r="AN25" s="1" t="n">
         <v>25</v>
       </c>
@@ -3514,63 +3588,70 @@
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="0"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R26" s="0"/>
+        <v>131</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
       <c r="X26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD26" s="0"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF26" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
       <c r="AK26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL26" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AM26" s="0"/>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="1" t="n">
         <v>25</v>
       </c>
@@ -3589,63 +3670,70 @@
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="0"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R27" s="0"/>
+        <v>134</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="0"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF27" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
       <c r="AK27" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL27" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AM27" s="0"/>
+      <c r="AM27" s="4"/>
       <c r="AN27" s="1" t="n">
         <v>25</v>
       </c>
@@ -3664,13 +3752,13 @@
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>49</v>
@@ -3680,37 +3768,44 @@
         <v>Availability</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
-      <c r="AD28" s="0"/>
+        <v>137</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
       <c r="AK28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AM28" s="4" t="s">
-        <v>137</v>
+      <c r="AM28" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="AN28" s="1" t="n">
         <v>300</v>
@@ -3730,63 +3825,70 @@
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="0"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R29" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
       <c r="X29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD29" s="0"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>0.01535</v>
       </c>
-      <c r="AI29" s="0"/>
-      <c r="AJ29" s="0"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
       <c r="AK29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL29" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="AM29" s="0"/>
+      <c r="AM29" s="4"/>
       <c r="AN29" s="1" t="n">
         <v>32</v>
       </c>
@@ -3805,63 +3907,70 @@
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="0"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R30" s="0"/>
+        <v>144</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
       <c r="S30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
       <c r="X30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD30" s="0"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
       <c r="AE30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>0.01535</v>
       </c>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
       <c r="AK30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="AM30" s="0"/>
+      <c r="AM30" s="4"/>
       <c r="AN30" s="1" t="n">
         <v>32</v>
       </c>
@@ -3880,63 +3989,70 @@
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="0"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M31" s="0"/>
-      <c r="N31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R31" s="0"/>
+        <v>147</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
       <c r="S31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
       <c r="X31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD31" s="0"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
       <c r="AE31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF31" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI31" s="0"/>
-      <c r="AJ31" s="0"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
       <c r="AK31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL31" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AM31" s="0"/>
+      <c r="AM31" s="4"/>
       <c r="AN31" s="1" t="n">
         <v>32</v>
       </c>
@@ -3955,63 +4071,70 @@
         <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="0"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M32" s="0"/>
-      <c r="N32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>5060517888794</v>
       </c>
-      <c r="R32" s="0"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
       <c r="S32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
       <c r="X32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD32" s="0"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
       <c r="AE32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF32" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI32" s="0"/>
-      <c r="AJ32" s="0"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
       <c r="AK32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL32" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="AM32" s="0"/>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="1" t="n">
         <v>32</v>
       </c>
@@ -4030,63 +4153,70 @@
         <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="0"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M33" s="0"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="P33" s="6" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="R33" s="0"/>
+      <c r="P33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="0"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
       <c r="X33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" s="0"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF33" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
       <c r="AK33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL33" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="AM33" s="0"/>
+      <c r="AM33" s="4"/>
       <c r="AN33" s="1" t="n">
         <v>32</v>
       </c>
@@ -4105,13 +4235,13 @@
         <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>49</v>
@@ -4121,37 +4251,44 @@
         <v>Availability</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="0"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
-      <c r="AD34" s="0"/>
+        <v>156</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
       <c r="AK34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL34" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="AM34" s="4" t="s">
-        <v>156</v>
+      <c r="AM34" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="AN34" s="1" t="n">
         <v>300</v>
@@ -4171,63 +4308,70 @@
         <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="0"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="0"/>
-      <c r="N35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R35" s="0"/>
+        <v>160</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
       <c r="X35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" s="0"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
       <c r="AE35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF35" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI35" s="0"/>
-      <c r="AJ35" s="0"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
       <c r="AK35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL35" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="AM35" s="0"/>
+      <c r="AM35" s="4"/>
       <c r="AN35" s="1" t="n">
         <v>38</v>
       </c>
@@ -4246,63 +4390,70 @@
         <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="0"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="0"/>
-      <c r="N36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R36" s="0"/>
+        <v>163</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
       <c r="S36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="0"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF36" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI36" s="0"/>
-      <c r="AJ36" s="0"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
       <c r="AK36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL36" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AM36" s="0"/>
+      <c r="AM36" s="4"/>
       <c r="AN36" s="1" t="n">
         <v>38</v>
       </c>
@@ -4321,63 +4472,70 @@
         <v>42</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="0"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M37" s="0"/>
-      <c r="N37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="R37" s="0"/>
+        <v>166</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
       <c r="S37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD37" s="0"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
       <c r="AE37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF37" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI37" s="0"/>
-      <c r="AJ37" s="0"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
       <c r="AK37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL37" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AM37" s="0"/>
+      <c r="AM37" s="4"/>
       <c r="AN37" s="1" t="n">
         <v>38</v>
       </c>
@@ -4396,63 +4554,70 @@
         <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="0"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M38" s="0"/>
-      <c r="N38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R38" s="0"/>
+        <v>169</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
       <c r="X38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
       <c r="AA38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD38" s="0"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
       <c r="AE38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF38" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI38" s="0"/>
-      <c r="AJ38" s="0"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
       <c r="AK38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL38" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AM38" s="0"/>
+      <c r="AM38" s="4"/>
       <c r="AN38" s="1" t="n">
         <v>38</v>
       </c>
@@ -4471,13 +4636,13 @@
         <v>42</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>49</v>
@@ -4487,37 +4652,44 @@
         <v>Availability</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="0"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="0"/>
-      <c r="X39" s="0"/>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
-      <c r="AD39" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
       <c r="AE39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
       <c r="AK39" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL39" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AM39" s="4" t="s">
-        <v>172</v>
+      <c r="AM39" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="AN39" s="1" t="n">
         <v>300</v>
@@ -4537,62 +4709,69 @@
         <v>42</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M40" s="0"/>
-      <c r="N40" s="0"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R40" s="0"/>
+        <v>176</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
       <c r="S40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="0"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
       <c r="X40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="0"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
       <c r="AE40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF40" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI40" s="0"/>
-      <c r="AJ40" s="0"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
       <c r="AK40" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL40" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AM40" s="0"/>
+      <c r="AM40" s="4"/>
       <c r="AN40" s="1" t="n">
         <v>45</v>
       </c>
@@ -4611,62 +4790,69 @@
         <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="0"/>
-      <c r="N41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R41" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
       <c r="X41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
       <c r="AA41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD41" s="0"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
       <c r="AE41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF41" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI41" s="0"/>
-      <c r="AJ41" s="0"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
       <c r="AK41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL41" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="AM41" s="0"/>
+      <c r="AM41" s="4"/>
       <c r="AN41" s="1" t="n">
         <v>45</v>
       </c>
@@ -4685,62 +4871,69 @@
         <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M42" s="0"/>
-      <c r="N42" s="0"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R42" s="0"/>
+        <v>182</v>
+      </c>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
       <c r="S42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="0"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
       <c r="X42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="0"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
       <c r="AA42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD42" s="0"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
       <c r="AE42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
       <c r="AK42" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL42" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AM42" s="0"/>
+      <c r="AM42" s="4"/>
       <c r="AN42" s="1" t="n">
         <v>45</v>
       </c>
@@ -4759,62 +4952,69 @@
         <v>42</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M43" s="0"/>
-      <c r="N43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="R43" s="0"/>
+        <v>185</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
       <c r="S43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
       <c r="X43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
       <c r="AA43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD43" s="0"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
       <c r="AE43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF43" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI43" s="0"/>
-      <c r="AJ43" s="0"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
       <c r="AK43" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL43" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="AM43" s="0"/>
+      <c r="AM43" s="4"/>
       <c r="AN43" s="1" t="n">
         <v>45</v>
       </c>
@@ -4833,62 +5033,69 @@
         <v>42</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M44" s="0"/>
-      <c r="N44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R44" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
       <c r="S44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
       <c r="X44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
       <c r="AA44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD44" s="0"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
       <c r="AE44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF44" s="1" t="n">
         <v>0.015325</v>
       </c>
-      <c r="AI44" s="0"/>
-      <c r="AJ44" s="0"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
       <c r="AK44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL44" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AM44" s="0"/>
+      <c r="AM44" s="4"/>
       <c r="AN44" s="1" t="n">
         <v>45</v>
       </c>
@@ -4907,62 +5114,69 @@
         <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R45" s="0"/>
+        <v>191</v>
+      </c>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
       <c r="S45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
       <c r="X45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
       <c r="AA45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD45" s="0"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
       <c r="AE45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF45" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI45" s="0"/>
-      <c r="AJ45" s="0"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
       <c r="AK45" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL45" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="AM45" s="0"/>
+      <c r="AM45" s="4"/>
       <c r="AN45" s="1" t="n">
         <v>45</v>
       </c>
@@ -4981,62 +5195,69 @@
         <v>42</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M46" s="0"/>
-      <c r="N46" s="0"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R46" s="0"/>
+        <v>194</v>
+      </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
       <c r="S46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="0"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
       <c r="X46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
       <c r="AA46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD46" s="0"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
       <c r="AE46" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF46" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
       <c r="AK46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL46" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="AM46" s="0"/>
+      <c r="AM46" s="4"/>
       <c r="AN46" s="1" t="n">
         <v>45</v>
       </c>
@@ -5055,62 +5276,69 @@
         <v>42</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M47" s="0"/>
-      <c r="N47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R47" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
       <c r="S47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
       <c r="X47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
       <c r="AA47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD47" s="0"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
       <c r="AE47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF47" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
       <c r="AK47" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL47" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="AM47" s="0"/>
+      <c r="AM47" s="4"/>
       <c r="AN47" s="1" t="n">
         <v>45</v>
       </c>
@@ -5129,62 +5357,69 @@
         <v>42</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M48" s="0"/>
-      <c r="N48" s="0"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R48" s="0"/>
+        <v>200</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
       <c r="S48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="0"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
       <c r="X48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y48" s="0"/>
-      <c r="Z48" s="0"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
       <c r="AA48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD48" s="0"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
       <c r="AE48" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF48" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
       <c r="AK48" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="AM48" s="0"/>
+      <c r="AM48" s="4"/>
       <c r="AN48" s="1" t="n">
         <v>45</v>
       </c>
@@ -5203,62 +5438,69 @@
         <v>42</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R49" s="0"/>
+        <v>203</v>
+      </c>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
       <c r="S49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
       <c r="X49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD49" s="0"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
       <c r="AE49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF49" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
       <c r="AK49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL49" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="AM49" s="0"/>
+      <c r="AM49" s="4"/>
       <c r="AN49" s="1" t="n">
         <v>45</v>
       </c>
@@ -5276,44 +5518,52 @@
       <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="0"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
       <c r="AK50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL50" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="AM50" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN50" s="0"/>
+      <c r="AM50" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -5328,34 +5578,42 @@
       <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="0"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
       <c r="AK51" s="1" t="n">
         <v>1</v>
       </c>
@@ -5382,55 +5640,56 @@
       <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="0"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
       <c r="T52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U52" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U52" s="4"/>
       <c r="Y52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z52" s="0"/>
-      <c r="AD52" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AD52" s="4"/>
       <c r="AE52" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF52" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
       <c r="AK52" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL52" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="AM52" s="0"/>
+      <c r="AM52" s="4"/>
       <c r="AN52" s="1" t="n">
         <v>501</v>
       </c>
@@ -5448,34 +5707,35 @@
       <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="0"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
       <c r="AK53" s="1" t="n">
         <v>1</v>
       </c>
@@ -5502,55 +5762,56 @@
       <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="0"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
+        <v>121</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U54" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U54" s="4"/>
       <c r="Y54" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z54" s="0"/>
-      <c r="AD54" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AD54" s="4"/>
       <c r="AE54" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF54" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
       <c r="AK54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL54" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="AM54" s="0"/>
+      <c r="AM54" s="4"/>
       <c r="AN54" s="1" t="n">
         <v>503</v>
       </c>
@@ -5568,34 +5829,35 @@
       <c r="D55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="0"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="0"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0"/>
-      <c r="AF55" s="0"/>
-      <c r="AI55" s="0"/>
-      <c r="AJ55" s="0"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
       <c r="AK55" s="1" t="n">
         <v>1</v>
       </c>
@@ -5622,55 +5884,56 @@
       <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="0"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M56" s="0"/>
-      <c r="N56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
       <c r="O56" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
+        <v>156</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
       <c r="T56" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U56" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U56" s="4"/>
       <c r="Y56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z56" s="0"/>
-      <c r="AD56" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AD56" s="4"/>
       <c r="AE56" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF56" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AI56" s="0"/>
-      <c r="AJ56" s="0"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
       <c r="AK56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="AM56" s="0"/>
+      <c r="AM56" s="4"/>
       <c r="AN56" s="1" t="n">
         <v>504</v>
       </c>
@@ -5688,34 +5951,35 @@
       <c r="D57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="0"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="0"/>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AI57" s="0"/>
-      <c r="AJ57" s="0"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
       <c r="AK57" s="1" t="n">
         <v>1</v>
       </c>
@@ -5742,55 +6006,56 @@
       <c r="D58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="0"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M58" s="0"/>
-      <c r="N58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
       <c r="O58" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
+        <v>137</v>
+      </c>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
       <c r="T58" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U58" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U58" s="4"/>
       <c r="Y58" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z58" s="0"/>
-      <c r="AD58" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AD58" s="4"/>
       <c r="AE58" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF58" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
       <c r="AK58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL58" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="AM58" s="0"/>
+      <c r="AM58" s="4"/>
       <c r="AN58" s="1" t="n">
         <v>505</v>
       </c>
@@ -5808,34 +6073,35 @@
       <c r="D59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="0"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="0"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="0"/>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AD59" s="0"/>
-      <c r="AE59" s="0"/>
-      <c r="AF59" s="0"/>
-      <c r="AI59" s="0"/>
-      <c r="AJ59" s="0"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
       <c r="AK59" s="1" t="n">
         <v>1</v>
       </c>
@@ -5862,55 +6128,56 @@
       <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="0"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="M60" s="0"/>
-      <c r="N60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
       <c r="O60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
       <c r="T60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U60" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U60" s="4"/>
       <c r="Y60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z60" s="0"/>
-      <c r="AD60" s="0"/>
+        <v>213</v>
+      </c>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AD60" s="4"/>
       <c r="AE60" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF60" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="AI60" s="0"/>
-      <c r="AJ60" s="0"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
       <c r="AK60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL60" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="AM60" s="0"/>
+      <c r="AM60" s="4"/>
       <c r="AN60" s="1" t="n">
         <v>502</v>
       </c>
@@ -5928,44 +6195,45 @@
       <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="0"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="0"/>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AD61" s="0"/>
-      <c r="AE61" s="0"/>
-      <c r="AF61" s="0"/>
-      <c r="AI61" s="0"/>
-      <c r="AJ61" s="0"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
       <c r="AK61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL61" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="AM61" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN61" s="0"/>
+      <c r="AM61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -5980,34 +6248,35 @@
       <c r="D62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="0"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="0"/>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="0"/>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AD62" s="0"/>
-      <c r="AE62" s="0"/>
-      <c r="AF62" s="0"/>
-      <c r="AI62" s="0"/>
-      <c r="AJ62" s="0"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
       <c r="AK62" s="1" t="n">
         <v>1</v>
       </c>
@@ -6035,53 +6304,54 @@
         <v>42</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H63" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="0"/>
+      <c r="H63" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M63" s="0"/>
-      <c r="N63" s="0"/>
-      <c r="O63" s="0"/>
-      <c r="P63" s="0"/>
-      <c r="R63" s="0"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="R63" s="4"/>
       <c r="S63" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="T63" s="0"/>
-      <c r="U63" s="0"/>
+        <v>239</v>
+      </c>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
       <c r="Y63" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z63" s="0"/>
-      <c r="AD63" s="0"/>
+        <v>233</v>
+      </c>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AD63" s="4"/>
       <c r="AE63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF63" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI63" s="0"/>
-      <c r="AJ63" s="0"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
       <c r="AK63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL63" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="AM63" s="4" t="s">
-        <v>239</v>
+      <c r="AM63" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="AN63" s="1" t="n">
         <v>302</v>
@@ -6101,56 +6371,57 @@
         <v>42</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M64" s="0"/>
-      <c r="N64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
       <c r="O64" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R64" s="0"/>
+      <c r="R64" s="4"/>
       <c r="S64" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U64" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U64" s="4"/>
       <c r="Y64" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z64" s="0"/>
-      <c r="AD64" s="0"/>
+        <v>233</v>
+      </c>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AD64" s="4"/>
       <c r="AE64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF64" s="0"/>
-      <c r="AI64" s="0"/>
-      <c r="AJ64" s="0"/>
+      <c r="AF64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
       <c r="AK64" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL64" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="AM64" s="0"/>
+      <c r="AM64" s="4"/>
       <c r="AN64" s="1" t="n">
         <v>63</v>
       </c>
@@ -6169,50 +6440,51 @@
         <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G65" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="G65" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M65" s="0"/>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="R65" s="0"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="R65" s="4"/>
       <c r="S65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T65" s="0"/>
-      <c r="U65" s="0"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
       <c r="Y65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z65" s="0"/>
-      <c r="AD65" s="0"/>
+        <v>233</v>
+      </c>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AD65" s="4"/>
       <c r="AE65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF65" s="0"/>
-      <c r="AI65" s="0"/>
-      <c r="AJ65" s="0"/>
+      <c r="AF65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
       <c r="AK65" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL65" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="AM65" s="4" t="n">
+      <c r="AM65" s="6" t="n">
         <v>66</v>
       </c>
       <c r="AN65" s="1" t="n">
@@ -6233,48 +6505,49 @@
         <v>42</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
-      <c r="L66" s="0"/>
-      <c r="M66" s="0"/>
-      <c r="N66" s="0"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
       <c r="O66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R66" s="0"/>
+      <c r="R66" s="4"/>
       <c r="S66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="0"/>
+      <c r="U66" s="4"/>
       <c r="Y66" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z66" s="0"/>
-      <c r="AD66" s="0"/>
+        <v>233</v>
+      </c>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AD66" s="4"/>
       <c r="AE66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF66" s="0"/>
-      <c r="AI66" s="0"/>
+      <c r="AF66" s="4"/>
+      <c r="AI66" s="4"/>
       <c r="AJ66" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK66" s="1" t="n">
         <v>4</v>
@@ -6282,7 +6555,7 @@
       <c r="AL66" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="AM66" s="0"/>
+      <c r="AM66" s="4"/>
       <c r="AN66" s="1" t="n">
         <v>65</v>
       </c>
@@ -6300,34 +6573,35 @@
       <c r="D67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="0"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="0"/>
-      <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="0"/>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="0"/>
-      <c r="AD67" s="0"/>
-      <c r="AE67" s="0"/>
-      <c r="AF67" s="0"/>
-      <c r="AI67" s="0"/>
-      <c r="AJ67" s="0"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
       <c r="AK67" s="1" t="n">
         <v>1</v>
       </c>
@@ -6355,53 +6629,54 @@
         <v>42</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="0"/>
+        <v>253</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M68" s="0"/>
-      <c r="N68" s="0"/>
-      <c r="O68" s="0"/>
-      <c r="P68" s="0"/>
-      <c r="R68" s="0"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="R68" s="4"/>
       <c r="S68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T68" s="0"/>
-      <c r="U68" s="0"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
       <c r="Y68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z68" s="0"/>
-      <c r="AD68" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AD68" s="4"/>
       <c r="AE68" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AF68" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="AI68" s="0"/>
-      <c r="AJ68" s="0"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
       <c r="AK68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL68" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="AM68" s="4" t="s">
-        <v>254</v>
+      <c r="AM68" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="AN68" s="1" t="n">
         <v>303</v>
@@ -6421,56 +6696,57 @@
         <v>42</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M69" s="0"/>
-      <c r="N69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
       <c r="O69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R69" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="R69" s="4"/>
       <c r="S69" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U69" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="U69" s="4"/>
       <c r="Y69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z69" s="0"/>
-      <c r="AD69" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AD69" s="4"/>
       <c r="AE69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF69" s="0"/>
-      <c r="AI69" s="0"/>
-      <c r="AJ69" s="0"/>
+      <c r="AF69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
       <c r="AK69" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL69" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="AM69" s="0"/>
+      <c r="AM69" s="4"/>
       <c r="AN69" s="1" t="n">
         <v>69</v>
       </c>
@@ -6489,51 +6765,52 @@
         <v>42</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M70" s="0"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="R70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="R70" s="4"/>
       <c r="S70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="0"/>
-      <c r="U70" s="0"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
       <c r="Y70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z70" s="0"/>
-      <c r="AD70" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AD70" s="4"/>
       <c r="AE70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF70" s="0"/>
-      <c r="AI70" s="0"/>
-      <c r="AJ70" s="0"/>
+      <c r="AF70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
       <c r="AK70" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL70" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="AM70" s="4" t="s">
-        <v>259</v>
+      <c r="AM70" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="AN70" s="1" t="n">
         <v>69</v>
@@ -6553,48 +6830,49 @@
         <v>42</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
-      <c r="L71" s="0"/>
-      <c r="M71" s="0"/>
-      <c r="N71" s="0"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
       <c r="O71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="R71" s="0"/>
+      <c r="R71" s="4"/>
       <c r="S71" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="0"/>
+      <c r="U71" s="4"/>
       <c r="Y71" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z71" s="0"/>
-      <c r="AD71" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AD71" s="4"/>
       <c r="AE71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF71" s="0"/>
-      <c r="AI71" s="0"/>
+      <c r="AF71" s="4"/>
+      <c r="AI71" s="4"/>
       <c r="AJ71" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK71" s="1" t="n">
         <v>4</v>
@@ -6602,7 +6880,7 @@
       <c r="AL71" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="AM71" s="0"/>
+      <c r="AM71" s="4"/>
       <c r="AN71" s="1" t="n">
         <v>71</v>
       </c>
@@ -6621,48 +6899,49 @@
         <v>42</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="0"/>
-      <c r="N72" s="0"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
       <c r="O72" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>4607042434891</v>
       </c>
-      <c r="R72" s="0"/>
+      <c r="R72" s="4"/>
       <c r="S72" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="0"/>
+      <c r="U72" s="4"/>
       <c r="Y72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z72" s="0"/>
-      <c r="AD72" s="0"/>
+        <v>254</v>
+      </c>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AD72" s="4"/>
       <c r="AE72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF72" s="0"/>
-      <c r="AI72" s="0"/>
+      <c r="AF72" s="4"/>
+      <c r="AI72" s="4"/>
       <c r="AJ72" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK72" s="1" t="n">
         <v>4</v>
@@ -6670,7 +6949,7 @@
       <c r="AL72" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="AM72" s="0"/>
+      <c r="AM72" s="4"/>
       <c r="AN72" s="1" t="n">
         <v>71</v>
       </c>
@@ -6686,54 +6965,55 @@
         <v>41</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J73" s="9"/>
-      <c r="K73" s="0"/>
+      <c r="K73" s="4"/>
       <c r="L73" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M73" s="0"/>
-      <c r="N73" s="0"/>
-      <c r="O73" s="0"/>
-      <c r="P73" s="0"/>
-      <c r="R73" s="0"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="R73" s="4"/>
       <c r="S73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T73" s="0"/>
-      <c r="U73" s="0"/>
-      <c r="Y73" s="0"/>
-      <c r="Z73" s="0"/>
-      <c r="AD73" s="0"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AD73" s="4"/>
       <c r="AE73" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF73" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI73" s="0"/>
-      <c r="AJ73" s="0"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
       <c r="AK73" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AL73" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="AM73" s="4" t="s">
-        <v>271</v>
+      <c r="AM73" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="AN73" s="1" t="n">
         <v>301</v>
@@ -6749,57 +7029,58 @@
       <c r="C74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="0"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M74" s="0"/>
-      <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
       <c r="P74" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y74" s="0"/>
+        <v>277</v>
+      </c>
+      <c r="Y74" s="4"/>
       <c r="Z74" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD74" s="0"/>
+        <v>278</v>
+      </c>
+      <c r="AA74" s="4"/>
+      <c r="AD74" s="4"/>
       <c r="AE74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF74" s="0"/>
-      <c r="AI74" s="0"/>
-      <c r="AJ74" s="0"/>
+      <c r="AF74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
       <c r="AK74" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL74" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AM74" s="0"/>
+      <c r="AM74" s="4"/>
       <c r="AN74" s="1" t="n">
         <v>74</v>
       </c>
@@ -6814,44 +7095,45 @@
       <c r="C75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K75" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="K75" s="4"/>
       <c r="L75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M75" s="0"/>
-      <c r="N75" s="0"/>
-      <c r="O75" s="0"/>
-      <c r="P75" s="0"/>
-      <c r="R75" s="0"/>
-      <c r="S75" s="0"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
       <c r="T75" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y75" s="0"/>
+        <v>282</v>
+      </c>
+      <c r="Y75" s="4"/>
       <c r="Z75" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD75" s="0"/>
+        <v>283</v>
+      </c>
+      <c r="AA75" s="4"/>
+      <c r="AD75" s="4"/>
       <c r="AE75" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF75" s="0"/>
+      <c r="AF75" s="4"/>
       <c r="AI75" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AJ75" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK75" s="1" t="n">
         <v>3</v>
@@ -6859,7 +7141,7 @@
       <c r="AL75" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="AM75" s="0"/>
+      <c r="AM75" s="4"/>
       <c r="AN75" s="1" t="n">
         <v>74</v>
       </c>
@@ -6874,54 +7156,55 @@
       <c r="C76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K76" s="0"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M76" s="0"/>
-      <c r="N76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
       <c r="O76" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="R76" s="0"/>
+        <v>288</v>
+      </c>
+      <c r="R76" s="4"/>
       <c r="S76" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="0"/>
+      <c r="Y76" s="4"/>
       <c r="Z76" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD76" s="0"/>
+        <v>289</v>
+      </c>
+      <c r="AA76" s="4"/>
+      <c r="AD76" s="4"/>
       <c r="AE76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF76" s="0"/>
-      <c r="AI76" s="0"/>
-      <c r="AJ76" s="0"/>
+      <c r="AF76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
       <c r="AK76" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL76" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="AM76" s="0"/>
+      <c r="AM76" s="4"/>
       <c r="AN76" s="1" t="n">
         <v>74</v>
       </c>
@@ -6936,44 +7219,45 @@
       <c r="C77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K77" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="K77" s="4"/>
       <c r="L77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M77" s="0"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
       <c r="T77" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y77" s="0"/>
+        <v>282</v>
+      </c>
+      <c r="Y77" s="4"/>
       <c r="Z77" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD77" s="0"/>
+        <v>292</v>
+      </c>
+      <c r="AA77" s="4"/>
+      <c r="AD77" s="4"/>
       <c r="AE77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF77" s="0"/>
+      <c r="AF77" s="4"/>
       <c r="AI77" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ77" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK77" s="1" t="n">
         <v>3</v>
@@ -6981,7 +7265,7 @@
       <c r="AL77" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AM77" s="0"/>
+      <c r="AM77" s="4"/>
       <c r="AN77" s="1" t="n">
         <v>74</v>
       </c>
@@ -6999,42 +7283,43 @@
       <c r="D78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="0"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="M78" s="0"/>
-      <c r="N78" s="0"/>
-      <c r="O78" s="0"/>
-      <c r="P78" s="0"/>
-      <c r="R78" s="0"/>
-      <c r="S78" s="0"/>
-      <c r="T78" s="0"/>
-      <c r="Y78" s="0"/>
-      <c r="Z78" s="0"/>
-      <c r="AD78" s="0"/>
-      <c r="AE78" s="0"/>
-      <c r="AF78" s="0"/>
-      <c r="AI78" s="0"/>
-      <c r="AJ78" s="0"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
       <c r="AK78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL78" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="AM78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN78" s="0"/>
+      <c r="AM78" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -7049,32 +7334,33 @@
       <c r="D79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="0"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="0"/>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="Y79" s="0"/>
-      <c r="Z79" s="0"/>
-      <c r="AD79" s="0"/>
-      <c r="AE79" s="0"/>
-      <c r="AF79" s="0"/>
-      <c r="AI79" s="0"/>
-      <c r="AJ79" s="0"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
       <c r="AK79" s="1" t="n">
         <v>1</v>
       </c>
@@ -7102,40 +7388,41 @@
         <v>42</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="0"/>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
-      <c r="P80" s="0"/>
-      <c r="R80" s="0"/>
+        <v>302</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="R80" s="4"/>
       <c r="S80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="T80" s="0"/>
-      <c r="Y80" s="0"/>
-      <c r="Z80" s="0"/>
-      <c r="AD80" s="0"/>
+        <v>303</v>
+      </c>
+      <c r="T80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AD80" s="4"/>
       <c r="AE80" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF80" s="1" t="n">
         <v>0.18</v>
       </c>
-      <c r="AI80" s="0"/>
+      <c r="AI80" s="4"/>
       <c r="AJ80" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK80" s="1" t="n">
         <v>2</v>
@@ -7143,8 +7430,8 @@
       <c r="AL80" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="AM80" s="4" t="s">
-        <v>304</v>
+      <c r="AM80" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="AN80" s="1" t="n">
         <v>311</v>
@@ -7164,50 +7451,51 @@
         <v>42</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K81" s="0"/>
+        <v>308</v>
+      </c>
+      <c r="K81" s="4"/>
       <c r="L81" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="M81" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N81" s="0"/>
+      <c r="N81" s="4"/>
       <c r="O81" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="R81" s="0"/>
-      <c r="S81" s="0"/>
+        <v>310</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
       <c r="T81" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z81" s="0"/>
-      <c r="AD81" s="0"/>
+        <v>312</v>
+      </c>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AD81" s="4"/>
       <c r="AE81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF81" s="0"/>
+      <c r="AF81" s="4"/>
       <c r="AI81" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AJ81" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK81" s="1" t="n">
         <v>3</v>
@@ -7215,7 +7503,7 @@
       <c r="AL81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="AM81" s="0"/>
+      <c r="AM81" s="4"/>
       <c r="AN81" s="1" t="n">
         <v>79</v>
       </c>
@@ -7234,52 +7522,53 @@
         <v>42</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K82" s="0"/>
+        <v>317</v>
+      </c>
+      <c r="K82" s="4"/>
       <c r="L82" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="M82" s="0"/>
-      <c r="N82" s="0"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
       <c r="O82" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="R82" s="0"/>
-      <c r="S82" s="0"/>
+        <v>310</v>
+      </c>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
       <c r="T82" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z82" s="0"/>
-      <c r="AD82" s="0"/>
+        <v>318</v>
+      </c>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AD82" s="4"/>
       <c r="AE82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF82" s="0"/>
-      <c r="AI82" s="0"/>
-      <c r="AJ82" s="0"/>
+      <c r="AF82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
       <c r="AK82" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AL82" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="AM82" s="0"/>
+      <c r="AM82" s="4"/>
       <c r="AN82" s="1" t="n">
         <v>79</v>
       </c>
@@ -7297,40 +7586,41 @@
       <c r="D83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="0"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="0"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AD83" s="0"/>
-      <c r="AE83" s="0"/>
-      <c r="AF83" s="0"/>
-      <c r="AI83" s="0"/>
-      <c r="AJ83" s="0"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
       <c r="AK83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AL83" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="AM83" s="4" t="s">
-        <v>320</v>
+      <c r="AM83" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="AN83" s="1" t="n">
         <v>310</v>
@@ -7350,39 +7640,40 @@
         <v>42</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K84" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="K84" s="4"/>
       <c r="L84" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M84" s="0"/>
-      <c r="N84" s="0"/>
-      <c r="O84" s="0"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
       <c r="P84" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="R84" s="0"/>
-      <c r="S84" s="0"/>
+        <v>324</v>
+      </c>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
       <c r="T84" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD84" s="0"/>
+        <v>326</v>
+      </c>
+      <c r="AA84" s="4"/>
+      <c r="AD84" s="4"/>
       <c r="AE84" s="1" t="s">
         <v>61</v>
       </c>
@@ -7390,10 +7681,10 @@
         <v>0.03</v>
       </c>
       <c r="AI84" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK84" s="1" t="n">
         <v>2</v>
@@ -7401,7 +7692,7 @@
       <c r="AL84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="AM84" s="0"/>
+      <c r="AM84" s="4"/>
       <c r="AN84" s="1" t="n">
         <v>312</v>
       </c>
@@ -7420,19 +7711,19 @@
         <v>42</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
+        <v>330</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="1" t="n">
         <v>1</v>
       </c>
@@ -7440,21 +7731,21 @@
         <v>15</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="R85" s="0"/>
-      <c r="S85" s="0"/>
+        <v>310</v>
+      </c>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
       <c r="T85" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z85" s="0"/>
-      <c r="AD85" s="0"/>
+        <v>312</v>
+      </c>
+      <c r="Z85" s="4"/>
+      <c r="AD85" s="4"/>
       <c r="AE85" s="1" t="s">
         <v>61</v>
       </c>
@@ -7462,10 +7753,10 @@
         <v>0.03</v>
       </c>
       <c r="AI85" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK85" s="1" t="n">
         <v>2</v>
@@ -7473,7 +7764,7 @@
       <c r="AL85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AM85" s="0"/>
+      <c r="AM85" s="4"/>
       <c r="AN85" s="1" t="n">
         <v>312</v>
       </c>
@@ -7492,42 +7783,42 @@
         <v>42</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K86" s="0"/>
-      <c r="L86" s="0"/>
-      <c r="O86" s="0"/>
-      <c r="P86" s="0"/>
-      <c r="R86" s="0"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="R86" s="4"/>
       <c r="S86" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="T86" s="0"/>
+        <v>239</v>
+      </c>
+      <c r="T86" s="4"/>
       <c r="Y86" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z86" s="0"/>
-      <c r="AD86" s="0"/>
+        <v>312</v>
+      </c>
+      <c r="Z86" s="4"/>
+      <c r="AD86" s="4"/>
       <c r="AE86" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF86" s="1" t="n">
         <v>0.03</v>
       </c>
       <c r="AI86" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ86" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK86" s="1" t="n">
         <v>2</v>
@@ -7535,8 +7826,8 @@
       <c r="AL86" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="AM86" s="4" t="s">
-        <v>332</v>
+      <c r="AM86" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="AN86" s="1" t="n">
         <v>312</v>
@@ -7555,51 +7846,51 @@
       <c r="D87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="0"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K87" s="0"/>
+        <v>336</v>
+      </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD87" s="0"/>
+        <v>339</v>
+      </c>
+      <c r="AD87" s="4"/>
       <c r="AE87" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF87" s="0"/>
+      <c r="AF87" s="4"/>
       <c r="AI87" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ87" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK87" s="1" t="n">
         <v>3</v>
@@ -7607,7 +7898,7 @@
       <c r="AL87" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="AM87" s="0"/>
+      <c r="AM87" s="4"/>
       <c r="AN87" s="1" t="n">
         <v>85</v>
       </c>
@@ -7625,41 +7916,41 @@
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="0"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K88" s="0"/>
+        <v>245</v>
+      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O88" s="0"/>
-      <c r="P88" s="0"/>
-      <c r="R88" s="0"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="R88" s="4"/>
       <c r="S88" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="T88" s="0"/>
+        <v>239</v>
+      </c>
+      <c r="T88" s="4"/>
       <c r="Y88" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z88" s="0"/>
-      <c r="AD88" s="0"/>
+        <v>312</v>
+      </c>
+      <c r="Z88" s="4"/>
+      <c r="AD88" s="4"/>
       <c r="AE88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF88" s="0"/>
+      <c r="AF88" s="4"/>
       <c r="AI88" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ88" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK88" s="1" t="n">
         <v>3</v>
@@ -7667,8 +7958,8 @@
       <c r="AL88" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="AM88" s="4" t="s">
-        <v>341</v>
+      <c r="AM88" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="AN88" s="1" t="n">
         <v>85</v>
@@ -7687,53 +7978,53 @@
       <c r="D89" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="0"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="0"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z89" s="4" t="s">
-        <v>346</v>
+        <v>312</v>
+      </c>
+      <c r="Z89" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF89" s="0"/>
+      <c r="AF89" s="4"/>
       <c r="AI89" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ89" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK89" s="1" t="n">
         <v>4</v>
@@ -7741,7 +8032,7 @@
       <c r="AL89" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="AM89" s="0"/>
+      <c r="AM89" s="4"/>
       <c r="AN89" s="1" t="n">
         <v>88</v>
       </c>
@@ -7759,53 +8050,53 @@
       <c r="D90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="0"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K90" s="0"/>
+      <c r="K90" s="4"/>
       <c r="L90" s="1" t="n">
         <v>4</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z90" s="4" t="s">
-        <v>346</v>
+        <v>312</v>
+      </c>
+      <c r="Z90" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF90" s="0"/>
+      <c r="AF90" s="4"/>
       <c r="AI90" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK90" s="1" t="n">
         <v>4</v>
@@ -7813,7 +8104,7 @@
       <c r="AL90" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AM90" s="0"/>
+      <c r="AM90" s="4"/>
       <c r="AN90" s="1" t="n">
         <v>88</v>
       </c>
@@ -7831,47 +8122,47 @@
       <c r="D91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="0"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K91" s="0"/>
+        <v>353</v>
+      </c>
+      <c r="K91" s="4"/>
       <c r="L91" s="1" t="n">
         <v>2</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z91" s="4" t="s">
-        <v>346</v>
+        <v>312</v>
+      </c>
+      <c r="Z91" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="AE91" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF91" s="0"/>
+      <c r="AF91" s="4"/>
       <c r="AI91" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK91" s="1" t="n">
         <v>3</v>
@@ -7879,7 +8170,7 @@
       <c r="AL91" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="AM91" s="0"/>
+      <c r="AM91" s="4"/>
       <c r="AN91" s="1" t="n">
         <v>85</v>
       </c>
@@ -7898,40 +8189,40 @@
         <v>42</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K92" s="0"/>
-      <c r="O92" s="0"/>
+        <v>356</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="O92" s="4"/>
       <c r="P92" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z92" s="0"/>
+        <v>312</v>
+      </c>
+      <c r="Z92" s="4"/>
       <c r="AE92" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF92" s="1" t="n">
         <v>0.03</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK92" s="1" t="n">
         <v>2</v>
@@ -7939,7 +8230,7 @@
       <c r="AL92" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="AM92" s="0"/>
+      <c r="AM92" s="4"/>
       <c r="AN92" s="1" t="n">
         <v>312</v>
       </c>
@@ -7955,35 +8246,35 @@
         <v>41</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O93" s="0"/>
-      <c r="P93" s="0"/>
+        <v>362</v>
+      </c>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
       <c r="T93" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y93" s="0"/>
-      <c r="Z93" s="0"/>
+        <v>363</v>
+      </c>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
       <c r="AL93" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AM93" s="4" t="s">
-        <v>363</v>
+      <c r="AM93" s="6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7997,34 +8288,34 @@
         <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P94" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="P94" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="T94" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y94" s="0"/>
-      <c r="Z94" s="0"/>
+        <v>363</v>
+      </c>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
       <c r="AL94" s="1" t="n">
         <v>94</v>
       </c>
@@ -8043,34 +8334,34 @@
         <v>41</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y95" s="0"/>
-      <c r="Z95" s="0"/>
+        <v>363</v>
+      </c>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
       <c r="AL95" s="1" t="n">
         <v>95</v>
       </c>
@@ -8089,34 +8380,34 @@
         <v>41</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y96" s="0"/>
-      <c r="Z96" s="0"/>
+        <v>363</v>
+      </c>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
       <c r="AL96" s="1" t="n">
         <v>96</v>
       </c>
@@ -8135,34 +8426,34 @@
         <v>41</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P97" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="0"/>
+        <v>363</v>
+      </c>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
       <c r="AL97" s="1" t="n">
         <v>97</v>
       </c>
@@ -8181,40 +8472,40 @@
         <v>41</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O98" s="0"/>
+        <v>362</v>
+      </c>
+      <c r="O98" s="4"/>
       <c r="P98" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z98" s="4" t="s">
-        <v>380</v>
+        <v>312</v>
+      </c>
+      <c r="Z98" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="AL98" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="AM98" s="0"/>
+      <c r="AM98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -8227,37 +8518,37 @@
         <v>41</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O99" s="0"/>
+        <v>369</v>
+      </c>
+      <c r="O99" s="4"/>
       <c r="P99" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z99" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="Z99" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="AL99" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AM99" s="0"/>
+      <c r="AM99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -8270,37 +8561,37 @@
         <v>41</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O100" s="4"/>
+      <c r="P100" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z100" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O100" s="0"/>
-      <c r="P100" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z100" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="AL100" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="AM100" s="0"/>
+      <c r="AM100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -8313,37 +8604,37 @@
         <v>41</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P101" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="P101" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="T101" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL101" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AM101" s="4" t="s">
-        <v>396</v>
+      <c r="AM101" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8357,37 +8648,37 @@
         <v>41</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL102" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="AM102" s="4" t="s">
-        <v>398</v>
+      <c r="AM102" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8401,22 +8692,22 @@
         <v>41</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL103" s="1" t="n">
         <v>521</v>
@@ -8426,7 +8717,7 @@
   <autoFilter ref="A1:AN103"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
